--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6802,28 +6802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>819.8759501519169</v>
+        <v>906.0390359061596</v>
       </c>
       <c r="AB2" t="n">
-        <v>1121.790445371997</v>
+        <v>1239.682580548017</v>
       </c>
       <c r="AC2" t="n">
-        <v>1014.728339708472</v>
+        <v>1121.369014965943</v>
       </c>
       <c r="AD2" t="n">
-        <v>819875.9501519168</v>
+        <v>906039.0359061596</v>
       </c>
       <c r="AE2" t="n">
-        <v>1121790.445371997</v>
+        <v>1239682.580548017</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572097273814925e-06</v>
+        <v>2.266436695349225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.33268229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1014728.339708472</v>
+        <v>1121369.014965943</v>
       </c>
     </row>
     <row r="3">
@@ -6908,28 +6908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.1079308319677</v>
+        <v>462.8228862588481</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.4960077661764</v>
+        <v>633.2546912840471</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.812178253077</v>
+        <v>572.817752326438</v>
       </c>
       <c r="AD3" t="n">
-        <v>411107.9308319677</v>
+        <v>462822.8862588481</v>
       </c>
       <c r="AE3" t="n">
-        <v>562496.0077661764</v>
+        <v>633254.6912840471</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.473266230155443e-06</v>
+        <v>3.565619910903966e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.28841145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>508812.178253077</v>
+        <v>572817.7523264381</v>
       </c>
     </row>
     <row r="4">
@@ -7014,28 +7014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>337.6913240611817</v>
+        <v>389.4061899795111</v>
       </c>
       <c r="AB4" t="n">
-        <v>462.0441674702872</v>
+        <v>532.8027285186096</v>
       </c>
       <c r="AC4" t="n">
-        <v>417.9473206099841</v>
+        <v>481.9527839021188</v>
       </c>
       <c r="AD4" t="n">
-        <v>337691.3240611817</v>
+        <v>389406.1899795111</v>
       </c>
       <c r="AE4" t="n">
-        <v>462044.1674702872</v>
+        <v>532802.7285186095</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.807609996489405e-06</v>
+        <v>4.047631420943494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.82356770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>417947.3206099841</v>
+        <v>481952.7839021188</v>
       </c>
     </row>
     <row r="5">
@@ -7120,28 +7120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.9559943452977</v>
+        <v>357.0375819766945</v>
       </c>
       <c r="AB5" t="n">
-        <v>429.5684422241702</v>
+        <v>488.5145710469542</v>
       </c>
       <c r="AC5" t="n">
-        <v>388.5710330013898</v>
+        <v>441.8914260207388</v>
       </c>
       <c r="AD5" t="n">
-        <v>313955.9943452976</v>
+        <v>357037.5819766945</v>
       </c>
       <c r="AE5" t="n">
-        <v>429568.4422241701</v>
+        <v>488514.5710469543</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.988366637545688e-06</v>
+        <v>4.308221837988042e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>388571.0330013898</v>
+        <v>441891.4260207388</v>
       </c>
     </row>
     <row r="6">
@@ -7226,28 +7226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>292.4609258100376</v>
+        <v>335.6277647874551</v>
       </c>
       <c r="AB6" t="n">
-        <v>400.157941158731</v>
+        <v>459.2207146341644</v>
       </c>
       <c r="AC6" t="n">
-        <v>361.9674288797387</v>
+        <v>415.3933341497999</v>
       </c>
       <c r="AD6" t="n">
-        <v>292460.9258100376</v>
+        <v>335627.7647874551</v>
       </c>
       <c r="AE6" t="n">
-        <v>400157.941158731</v>
+        <v>459220.7146341644</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.096204406357675e-06</v>
+        <v>4.463687711793027e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>361967.4288797387</v>
+        <v>415393.3341497999</v>
       </c>
     </row>
     <row r="7">
@@ -7332,28 +7332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>283.6011048610266</v>
+        <v>326.7679438384441</v>
       </c>
       <c r="AB7" t="n">
-        <v>388.0355432685799</v>
+        <v>447.0983167440133</v>
       </c>
       <c r="AC7" t="n">
-        <v>351.0019756303313</v>
+        <v>404.4278809003926</v>
       </c>
       <c r="AD7" t="n">
-        <v>283601.1048610266</v>
+        <v>326767.9438384441</v>
       </c>
       <c r="AE7" t="n">
-        <v>388035.5432685799</v>
+        <v>447098.3167440133</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.176405829223041e-06</v>
+        <v>4.579311249107732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.567057291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>351001.9756303313</v>
+        <v>404427.8809003925</v>
       </c>
     </row>
     <row r="8">
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>277.832587832438</v>
+        <v>320.8288346092634</v>
       </c>
       <c r="AB8" t="n">
-        <v>380.1428037810546</v>
+        <v>438.9721654816411</v>
       </c>
       <c r="AC8" t="n">
-        <v>343.862508121966</v>
+        <v>397.0772781093762</v>
       </c>
       <c r="AD8" t="n">
-        <v>277832.5878324381</v>
+        <v>320828.8346092633</v>
       </c>
       <c r="AE8" t="n">
-        <v>380142.8037810546</v>
+        <v>438972.1654816411</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.227850513738542e-06</v>
+        <v>4.653477220074439e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>343862.508121966</v>
+        <v>397077.2781093762</v>
       </c>
     </row>
     <row r="9">
@@ -7544,28 +7544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>272.7819386969806</v>
+        <v>315.7781854738059</v>
       </c>
       <c r="AB9" t="n">
-        <v>373.2322828150077</v>
+        <v>432.0616445155941</v>
       </c>
       <c r="AC9" t="n">
-        <v>337.6115175779415</v>
+        <v>390.8262875653517</v>
       </c>
       <c r="AD9" t="n">
-        <v>272781.9386969806</v>
+        <v>315778.1854738059</v>
       </c>
       <c r="AE9" t="n">
-        <v>373232.2828150077</v>
+        <v>432061.6445155941</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.273319772103423e-06</v>
+        <v>4.719028631800005e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>337611.5175779415</v>
+        <v>390826.2875653517</v>
       </c>
     </row>
     <row r="10">
@@ -7650,28 +7650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>269.2958782367608</v>
+        <v>303.8294389272458</v>
       </c>
       <c r="AB10" t="n">
-        <v>368.4625010992016</v>
+        <v>415.7128423490967</v>
       </c>
       <c r="AC10" t="n">
-        <v>333.2969571346613</v>
+        <v>376.0377921319368</v>
       </c>
       <c r="AD10" t="n">
-        <v>269295.8782367608</v>
+        <v>303829.4389272458</v>
       </c>
       <c r="AE10" t="n">
-        <v>368462.5010992016</v>
+        <v>415712.8423490967</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.305344321629408e-06</v>
+        <v>4.765197285233001e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.195963541666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>333296.9571346613</v>
+        <v>376037.7921319368</v>
       </c>
     </row>
     <row r="11">
@@ -7756,28 +7756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>266.2713648537147</v>
+        <v>300.8049255441998</v>
       </c>
       <c r="AB11" t="n">
-        <v>364.3242284564047</v>
+        <v>411.5745697062998</v>
       </c>
       <c r="AC11" t="n">
-        <v>329.5536354247908</v>
+        <v>372.2944704220663</v>
       </c>
       <c r="AD11" t="n">
-        <v>266271.3648537147</v>
+        <v>300804.9255441998</v>
       </c>
       <c r="AE11" t="n">
-        <v>364324.2284564048</v>
+        <v>411574.5697062998</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.332420471374409e-06</v>
+        <v>4.804232006794426e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.12109375</v>
       </c>
       <c r="AH11" t="n">
-        <v>329553.6354247908</v>
+        <v>372294.4704220663</v>
       </c>
     </row>
     <row r="12">
@@ -7862,28 +7862,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>263.5913423578339</v>
+        <v>298.1249030483189</v>
       </c>
       <c r="AB12" t="n">
-        <v>360.6573034432927</v>
+        <v>407.9076446931878</v>
       </c>
       <c r="AC12" t="n">
-        <v>326.2366765883686</v>
+        <v>368.9775115856441</v>
       </c>
       <c r="AD12" t="n">
-        <v>263591.3423578339</v>
+        <v>298124.9030483189</v>
       </c>
       <c r="AE12" t="n">
-        <v>360657.3034432927</v>
+        <v>407907.6446931878</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.353707927035996e-06</v>
+        <v>4.834921374090995e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH12" t="n">
-        <v>326236.6765883686</v>
+        <v>368977.5115856441</v>
       </c>
     </row>
     <row r="13">
@@ -7968,28 +7968,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>261.3912431696913</v>
+        <v>295.9248038601764</v>
       </c>
       <c r="AB13" t="n">
-        <v>357.6470306725501</v>
+        <v>404.8973719224451</v>
       </c>
       <c r="AC13" t="n">
-        <v>323.5137000259212</v>
+        <v>366.2545350231968</v>
       </c>
       <c r="AD13" t="n">
-        <v>261391.2431696913</v>
+        <v>295924.8038601764</v>
       </c>
       <c r="AE13" t="n">
-        <v>357647.0306725501</v>
+        <v>404897.3719224451</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.371167375319841e-06</v>
+        <v>4.860092039373707e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.016927083333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>323513.7000259212</v>
+        <v>366254.5350231968</v>
       </c>
     </row>
     <row r="14">
@@ -8074,28 +8074,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>250.2524787412998</v>
+        <v>293.3339768641488</v>
       </c>
       <c r="AB14" t="n">
-        <v>342.4064817738584</v>
+        <v>401.35248812726</v>
       </c>
       <c r="AC14" t="n">
-        <v>309.7276877239789</v>
+        <v>363.0479699621485</v>
       </c>
       <c r="AD14" t="n">
-        <v>250252.4787412998</v>
+        <v>293333.9768641488</v>
       </c>
       <c r="AE14" t="n">
-        <v>342406.4817738584</v>
+        <v>401352.48812726</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.390214046174946e-06</v>
+        <v>4.887550946954848e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.96484375</v>
       </c>
       <c r="AH14" t="n">
-        <v>309727.6877239789</v>
+        <v>363047.9699621485</v>
       </c>
     </row>
     <row r="15">
@@ -8180,28 +8180,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>248.948125457198</v>
+        <v>292.0296235800469</v>
       </c>
       <c r="AB15" t="n">
-        <v>340.6218080665456</v>
+        <v>399.5678144199463</v>
       </c>
       <c r="AC15" t="n">
-        <v>308.1133407704862</v>
+        <v>361.4336230086555</v>
       </c>
       <c r="AD15" t="n">
-        <v>248948.125457198</v>
+        <v>292029.6235800469</v>
       </c>
       <c r="AE15" t="n">
-        <v>340621.8080665456</v>
+        <v>399567.8144199463</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.397589962829618e-06</v>
+        <v>4.898184543518131e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.9453125</v>
       </c>
       <c r="AH15" t="n">
-        <v>308113.3407704862</v>
+        <v>361433.6230086555</v>
       </c>
     </row>
     <row r="16">
@@ -8286,28 +8286,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>245.8977236927879</v>
+        <v>288.9792218156367</v>
       </c>
       <c r="AB16" t="n">
-        <v>336.4481137982536</v>
+        <v>395.3941201516521</v>
       </c>
       <c r="AC16" t="n">
-        <v>304.337978025342</v>
+        <v>357.6582602635107</v>
       </c>
       <c r="AD16" t="n">
-        <v>245897.7236927879</v>
+        <v>288979.2218156367</v>
       </c>
       <c r="AE16" t="n">
-        <v>336448.1137982536</v>
+        <v>395394.1201516521</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.42009117692805e-06</v>
+        <v>4.930623743160558e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.88671875</v>
       </c>
       <c r="AH16" t="n">
-        <v>304337.9780253419</v>
+        <v>357658.2602635107</v>
       </c>
     </row>
     <row r="17">
@@ -8392,28 +8392,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>244.514018100195</v>
+        <v>287.5955162230439</v>
       </c>
       <c r="AB17" t="n">
-        <v>334.5548667616867</v>
+        <v>393.5008731150842</v>
       </c>
       <c r="AC17" t="n">
-        <v>302.6254198287554</v>
+        <v>355.9457020669239</v>
       </c>
       <c r="AD17" t="n">
-        <v>244514.018100195</v>
+        <v>287595.5162230439</v>
       </c>
       <c r="AE17" t="n">
-        <v>334554.8667616867</v>
+        <v>393500.8731150843</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.428587485985964e-06</v>
+        <v>4.942872569581557e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.863932291666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>302625.4198287554</v>
+        <v>355945.7020669239</v>
       </c>
     </row>
     <row r="18">
@@ -8498,28 +8498,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>242.7933110711101</v>
+        <v>285.8748091939589</v>
       </c>
       <c r="AB18" t="n">
-        <v>332.2005194922572</v>
+        <v>391.1465258456536</v>
       </c>
       <c r="AC18" t="n">
-        <v>300.4957681583724</v>
+        <v>353.8160503965406</v>
       </c>
       <c r="AD18" t="n">
-        <v>242793.3110711101</v>
+        <v>285874.8091939589</v>
       </c>
       <c r="AE18" t="n">
-        <v>332200.5194922572</v>
+        <v>391146.5258456536</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.438764383648741e-06</v>
+        <v>4.957544240789127e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.837890625</v>
       </c>
       <c r="AH18" t="n">
-        <v>300495.7681583724</v>
+        <v>353816.0503965406</v>
       </c>
     </row>
     <row r="19">
@@ -8604,28 +8604,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>241.9127013389556</v>
+        <v>284.9941994618044</v>
       </c>
       <c r="AB19" t="n">
-        <v>330.9956304069646</v>
+        <v>389.9416367603603</v>
       </c>
       <c r="AC19" t="n">
-        <v>299.4058719963073</v>
+        <v>352.7261542344752</v>
       </c>
       <c r="AD19" t="n">
-        <v>241912.7013389556</v>
+        <v>284994.1994618045</v>
       </c>
       <c r="AE19" t="n">
-        <v>330995.6304069646</v>
+        <v>389941.6367603603</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.439698043984775e-06</v>
+        <v>4.958890265670554e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.834635416666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>299405.8719963073</v>
+        <v>352726.1542344752</v>
       </c>
     </row>
     <row r="20">
@@ -8710,28 +8710,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>241.2957115147769</v>
+        <v>284.3772096376257</v>
       </c>
       <c r="AB20" t="n">
-        <v>330.1514377098537</v>
+        <v>389.097444063249</v>
       </c>
       <c r="AC20" t="n">
-        <v>298.6422478653765</v>
+        <v>351.9625301035443</v>
       </c>
       <c r="AD20" t="n">
-        <v>241295.7115147769</v>
+        <v>284377.2096376257</v>
       </c>
       <c r="AE20" t="n">
-        <v>330151.4377098538</v>
+        <v>389097.444063249</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.446513764437827e-06</v>
+        <v>4.968716247304982e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.818359375</v>
       </c>
       <c r="AH20" t="n">
-        <v>298642.2478653765</v>
+        <v>351962.5301035444</v>
       </c>
     </row>
     <row r="21">
@@ -8816,28 +8816,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>239.1847857494576</v>
+        <v>282.2662838723064</v>
       </c>
       <c r="AB21" t="n">
-        <v>327.2631759502732</v>
+        <v>386.209182303667</v>
       </c>
       <c r="AC21" t="n">
-        <v>296.0296377544286</v>
+        <v>349.349919992596</v>
       </c>
       <c r="AD21" t="n">
-        <v>239184.7857494576</v>
+        <v>282266.2838723063</v>
       </c>
       <c r="AE21" t="n">
-        <v>327263.1759502732</v>
+        <v>386209.182303667</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.457624322436638e-06</v>
+        <v>4.984733943393981e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH21" t="n">
-        <v>296029.6377544286</v>
+        <v>349349.919992596</v>
       </c>
     </row>
     <row r="22">
@@ -8922,28 +8922,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>238.3323201906277</v>
+        <v>281.4138183134765</v>
       </c>
       <c r="AB22" t="n">
-        <v>326.0967949645565</v>
+        <v>385.0428013179497</v>
       </c>
       <c r="AC22" t="n">
-        <v>294.9745745329623</v>
+        <v>348.2948567711296</v>
       </c>
       <c r="AD22" t="n">
-        <v>238332.3201906277</v>
+        <v>281413.8183134765</v>
       </c>
       <c r="AE22" t="n">
-        <v>326096.7949645565</v>
+        <v>385042.8013179497</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.456223831932586e-06</v>
+        <v>4.982714906071839e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8.792317708333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>294974.5745329623</v>
+        <v>348294.8567711295</v>
       </c>
     </row>
     <row r="23">
@@ -9028,28 +9028,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>237.0065241245561</v>
+        <v>280.0880222474048</v>
       </c>
       <c r="AB23" t="n">
-        <v>324.2827822969638</v>
+        <v>383.2287886503561</v>
       </c>
       <c r="AC23" t="n">
-        <v>293.3336886883814</v>
+        <v>346.6539709265483</v>
       </c>
       <c r="AD23" t="n">
-        <v>237006.524124556</v>
+        <v>280088.0222474048</v>
       </c>
       <c r="AE23" t="n">
-        <v>324282.7822969639</v>
+        <v>383228.7886503561</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.466960925796983e-06</v>
+        <v>4.998194192208266e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.766276041666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>293333.6886883813</v>
+        <v>346653.9709265482</v>
       </c>
     </row>
     <row r="24">
@@ -9134,28 +9134,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>235.8295226284895</v>
+        <v>278.9110207513382</v>
       </c>
       <c r="AB24" t="n">
-        <v>322.672356924405</v>
+        <v>381.6183632777964</v>
       </c>
       <c r="AC24" t="n">
-        <v>291.8769600531328</v>
+        <v>345.1972422912995</v>
       </c>
       <c r="AD24" t="n">
-        <v>235829.5226284895</v>
+        <v>278911.0207513382</v>
       </c>
       <c r="AE24" t="n">
-        <v>322672.356924405</v>
+        <v>381618.3632777964</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.465840533393741e-06</v>
+        <v>4.996578962350552e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH24" t="n">
-        <v>291876.9600531328</v>
+        <v>345197.2422912995</v>
       </c>
     </row>
     <row r="25">
@@ -9240,28 +9240,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>234.0454277778043</v>
+        <v>277.1269259006531</v>
       </c>
       <c r="AB25" t="n">
-        <v>320.231279640989</v>
+        <v>379.1772859943792</v>
       </c>
       <c r="AC25" t="n">
-        <v>289.6688557595718</v>
+        <v>342.9891379977382</v>
       </c>
       <c r="AD25" t="n">
-        <v>234045.4277778043</v>
+        <v>277126.9259006531</v>
       </c>
       <c r="AE25" t="n">
-        <v>320231.279640989</v>
+        <v>379177.2859943792</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.477324555526966e-06</v>
+        <v>5.013135068392121e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.740234375</v>
       </c>
       <c r="AH25" t="n">
-        <v>289668.8557595718</v>
+        <v>342989.1379977382</v>
       </c>
     </row>
     <row r="26">
@@ -9346,28 +9346,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>233.469821782333</v>
+        <v>276.5513199051817</v>
       </c>
       <c r="AB26" t="n">
-        <v>319.4437101240412</v>
+        <v>378.389716477431</v>
       </c>
       <c r="AC26" t="n">
-        <v>288.9564507719605</v>
+        <v>342.2767330101267</v>
       </c>
       <c r="AD26" t="n">
-        <v>233469.821782333</v>
+        <v>276551.3199051818</v>
       </c>
       <c r="AE26" t="n">
-        <v>319443.7101240412</v>
+        <v>378389.716477431</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.4755506008885e-06</v>
+        <v>5.010577621117407e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH26" t="n">
-        <v>288956.4507719605</v>
+        <v>342276.7330101267</v>
       </c>
     </row>
     <row r="27">
@@ -9452,28 +9452,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>232.001542579656</v>
+        <v>275.0830407025048</v>
       </c>
       <c r="AB27" t="n">
-        <v>317.4347457430329</v>
+        <v>376.3807520964216</v>
       </c>
       <c r="AC27" t="n">
-        <v>287.1392191318758</v>
+        <v>340.4595013700417</v>
       </c>
       <c r="AD27" t="n">
-        <v>232001.5425796561</v>
+        <v>275083.0407025048</v>
       </c>
       <c r="AE27" t="n">
-        <v>317434.7457430329</v>
+        <v>376380.7520964217</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.484887204248846e-06</v>
+        <v>5.024037869931691e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>8.720703125</v>
       </c>
       <c r="AH27" t="n">
-        <v>287139.2191318758</v>
+        <v>340459.5013700417</v>
       </c>
     </row>
     <row r="28">
@@ -9558,28 +9558,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>232.5381626474592</v>
+        <v>275.6196607703079</v>
       </c>
       <c r="AB28" t="n">
-        <v>318.1689729938073</v>
+        <v>377.1149793471964</v>
       </c>
       <c r="AC28" t="n">
-        <v>287.8033727643309</v>
+        <v>341.1236550024969</v>
       </c>
       <c r="AD28" t="n">
-        <v>232538.1626474592</v>
+        <v>275619.6607703079</v>
       </c>
       <c r="AE28" t="n">
-        <v>318168.9729938073</v>
+        <v>377114.9793471964</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.484327008047225e-06</v>
+        <v>5.023230255002835e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH28" t="n">
-        <v>287803.3727643309</v>
+        <v>341123.6550024969</v>
       </c>
     </row>
   </sheetData>
@@ -9855,28 +9855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>586.2596228155205</v>
+        <v>653.5137599095241</v>
       </c>
       <c r="AB2" t="n">
-        <v>802.1462798853687</v>
+        <v>894.1663573005095</v>
       </c>
       <c r="AC2" t="n">
-        <v>725.5905647524829</v>
+        <v>808.8283751301126</v>
       </c>
       <c r="AD2" t="n">
-        <v>586259.6228155205</v>
+        <v>653513.7599095241</v>
       </c>
       <c r="AE2" t="n">
-        <v>802146.2798853687</v>
+        <v>894166.3573005095</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.927950261533773e-06</v>
+        <v>2.82244665541543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>725590.5647524829</v>
+        <v>808828.3751301126</v>
       </c>
     </row>
     <row r="3">
@@ -9961,28 +9961,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.1361018481107</v>
+        <v>390.4700509775367</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.3892202943472</v>
+        <v>534.2583500703429</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.973126287327</v>
+        <v>483.2694829759324</v>
       </c>
       <c r="AD3" t="n">
-        <v>340136.1018481107</v>
+        <v>390470.0509775367</v>
       </c>
       <c r="AE3" t="n">
-        <v>465389.2202943473</v>
+        <v>534258.3500703429</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.759651063200389e-06</v>
+        <v>4.040025341342102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>420973.126287327</v>
+        <v>483269.4829759324</v>
       </c>
     </row>
     <row r="4">
@@ -10067,28 +10067,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.779891186066</v>
+        <v>334.7817576150605</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.5943636579723</v>
+        <v>458.0631702976918</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.3621998281752</v>
+        <v>414.3462642201766</v>
       </c>
       <c r="AD4" t="n">
-        <v>292779.891186066</v>
+        <v>334781.7576150605</v>
       </c>
       <c r="AE4" t="n">
-        <v>400594.3636579723</v>
+        <v>458063.1702976918</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.064476023142305e-06</v>
+        <v>4.486277615501267e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>362362.1998281752</v>
+        <v>414346.2642201766</v>
       </c>
     </row>
     <row r="5">
@@ -10173,28 +10173,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>267.3779929779631</v>
+        <v>309.4651107529783</v>
       </c>
       <c r="AB5" t="n">
-        <v>365.8383658769887</v>
+        <v>423.4238171693576</v>
       </c>
       <c r="AC5" t="n">
-        <v>330.9232656950594</v>
+        <v>383.0128423377732</v>
       </c>
       <c r="AD5" t="n">
-        <v>267377.9929779631</v>
+        <v>309465.1107529782</v>
       </c>
       <c r="AE5" t="n">
-        <v>365838.3658769887</v>
+        <v>423423.8171693576</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.223456341286916e-06</v>
+        <v>4.719018820591883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.752604166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>330923.2656950594</v>
+        <v>383012.8423377732</v>
       </c>
     </row>
     <row r="6">
@@ -10279,28 +10279,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>257.1276930542907</v>
+        <v>299.0442186287169</v>
       </c>
       <c r="AB6" t="n">
-        <v>351.8134533099366</v>
+        <v>409.1654928276292</v>
       </c>
       <c r="AC6" t="n">
-        <v>318.2368710994243</v>
+        <v>370.1153124595354</v>
       </c>
       <c r="AD6" t="n">
-        <v>257127.6930542907</v>
+        <v>299044.2186287169</v>
       </c>
       <c r="AE6" t="n">
-        <v>351813.4533099366</v>
+        <v>409165.4928276292</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.326610034955473e-06</v>
+        <v>4.870031947588711e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.449869791666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>318236.8710994243</v>
+        <v>370115.3124595354</v>
       </c>
     </row>
     <row r="7">
@@ -10385,28 +10385,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>250.7315673458627</v>
+        <v>292.6480929202888</v>
       </c>
       <c r="AB7" t="n">
-        <v>343.0619919385186</v>
+        <v>400.4140314562068</v>
       </c>
       <c r="AC7" t="n">
-        <v>310.3206369185384</v>
+        <v>362.1990782786483</v>
       </c>
       <c r="AD7" t="n">
-        <v>250731.5673458627</v>
+        <v>292648.0929202888</v>
       </c>
       <c r="AE7" t="n">
-        <v>343061.9919385186</v>
+        <v>400414.0314562068</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.391708901559038e-06</v>
+        <v>4.965334239345136e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>310320.6369185384</v>
+        <v>362199.0782786483</v>
       </c>
     </row>
     <row r="8">
@@ -10491,28 +10491,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>245.6309151770909</v>
+        <v>279.3006989056571</v>
       </c>
       <c r="AB8" t="n">
-        <v>336.0830546163163</v>
+        <v>382.1515381199224</v>
       </c>
       <c r="AC8" t="n">
-        <v>304.0077595793648</v>
+        <v>345.6795316748086</v>
       </c>
       <c r="AD8" t="n">
-        <v>245630.9151770909</v>
+        <v>279300.6989056571</v>
       </c>
       <c r="AE8" t="n">
-        <v>336083.0546163163</v>
+        <v>382151.5381199224</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.442416475693863e-06</v>
+        <v>5.039568220312677e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.134114583333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>304007.7595793648</v>
+        <v>345679.5316748086</v>
       </c>
     </row>
     <row r="9">
@@ -10597,28 +10597,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>242.0409946606096</v>
+        <v>275.7107783891757</v>
       </c>
       <c r="AB9" t="n">
-        <v>331.1711669895535</v>
+        <v>377.2396504931571</v>
       </c>
       <c r="AC9" t="n">
-        <v>299.5646556138211</v>
+        <v>341.2364277092641</v>
       </c>
       <c r="AD9" t="n">
-        <v>242040.9946606096</v>
+        <v>275710.7783891758</v>
       </c>
       <c r="AE9" t="n">
-        <v>331171.1669895534</v>
+        <v>377239.6504931571</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.476897626105544e-06</v>
+        <v>5.090047327370606e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.04296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>299564.6556138211</v>
+        <v>341236.4277092641</v>
       </c>
     </row>
     <row r="10">
@@ -10703,28 +10703,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>230.4238793267378</v>
+        <v>272.4256562471841</v>
       </c>
       <c r="AB10" t="n">
-        <v>315.2761172788007</v>
+        <v>372.7448014491238</v>
       </c>
       <c r="AC10" t="n">
-        <v>285.1866071386151</v>
+        <v>337.1705607494332</v>
       </c>
       <c r="AD10" t="n">
-        <v>230423.8793267378</v>
+        <v>272425.6562471841</v>
       </c>
       <c r="AE10" t="n">
-        <v>315276.1172788007</v>
+        <v>372744.8014491238</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.503265564655652e-06</v>
+        <v>5.128648997473728e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.974609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>285186.6071386151</v>
+        <v>337170.5607494332</v>
       </c>
     </row>
     <row r="11">
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>227.3980011551112</v>
+        <v>269.3997780755575</v>
       </c>
       <c r="AB11" t="n">
-        <v>311.1359772720597</v>
+        <v>368.6046614423807</v>
       </c>
       <c r="AC11" t="n">
-        <v>281.4415962833932</v>
+        <v>333.4255498942106</v>
       </c>
       <c r="AD11" t="n">
-        <v>227398.0011551112</v>
+        <v>269399.7780755575</v>
       </c>
       <c r="AE11" t="n">
-        <v>311135.9772720597</v>
+        <v>368604.6614423807</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.529343745639277e-06</v>
+        <v>5.166826473399893e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.909505208333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>281441.5962833932</v>
+        <v>333425.5498942106</v>
       </c>
     </row>
     <row r="12">
@@ -10915,28 +10915,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>225.0686281971358</v>
+        <v>267.0704051175821</v>
       </c>
       <c r="AB12" t="n">
-        <v>307.9488264262772</v>
+        <v>365.4175105965966</v>
       </c>
       <c r="AC12" t="n">
-        <v>278.5586226411369</v>
+        <v>330.5425762519538</v>
       </c>
       <c r="AD12" t="n">
-        <v>225068.6281971358</v>
+        <v>267070.4051175821</v>
       </c>
       <c r="AE12" t="n">
-        <v>307948.8264262772</v>
+        <v>365417.5105965966</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.547791644038803e-06</v>
+        <v>5.193833502666179e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.860677083333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>278558.6226411369</v>
+        <v>330542.5762519538</v>
       </c>
     </row>
     <row r="13">
@@ -11021,28 +11021,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>223.5901990992122</v>
+        <v>265.5919760196584</v>
       </c>
       <c r="AB13" t="n">
-        <v>305.9259745108106</v>
+        <v>363.394658681129</v>
       </c>
       <c r="AC13" t="n">
-        <v>276.7288288733912</v>
+        <v>328.712782484208</v>
       </c>
       <c r="AD13" t="n">
-        <v>223590.1990992122</v>
+        <v>265591.9760196584</v>
       </c>
       <c r="AE13" t="n">
-        <v>305925.9745108106</v>
+        <v>363394.658681129</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.553490209513002e-06</v>
+        <v>5.202175988146342e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.84765625</v>
       </c>
       <c r="AH13" t="n">
-        <v>276728.8288733912</v>
+        <v>328712.782484208</v>
       </c>
     </row>
     <row r="14">
@@ -11127,28 +11127,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>220.6372110068966</v>
+        <v>262.6389879273429</v>
       </c>
       <c r="AB14" t="n">
-        <v>301.8855659262664</v>
+        <v>359.3542500965827</v>
       </c>
       <c r="AC14" t="n">
-        <v>273.0740312134056</v>
+        <v>325.0579848242217</v>
       </c>
       <c r="AD14" t="n">
-        <v>220637.2110068966</v>
+        <v>262638.9879273429</v>
       </c>
       <c r="AE14" t="n">
-        <v>301885.5659262664</v>
+        <v>359354.2500965827</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.57609129969881e-06</v>
+        <v>5.235263133949017e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.792317708333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>273074.0312134056</v>
+        <v>325057.9848242217</v>
       </c>
     </row>
     <row r="15">
@@ -11233,28 +11233,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>219.0815771878855</v>
+        <v>261.0833541083317</v>
       </c>
       <c r="AB15" t="n">
-        <v>299.7570791053759</v>
+        <v>357.2257632756911</v>
       </c>
       <c r="AC15" t="n">
-        <v>271.1486841873502</v>
+        <v>323.132637798166</v>
       </c>
       <c r="AD15" t="n">
-        <v>219081.5771878855</v>
+        <v>261083.3541083317</v>
       </c>
       <c r="AE15" t="n">
-        <v>299757.0791053759</v>
+        <v>357225.7632756911</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.584687440837856e-06</v>
+        <v>5.247847561198752e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH15" t="n">
-        <v>271148.6841873502</v>
+        <v>323132.637798166</v>
       </c>
     </row>
     <row r="16">
@@ -11339,28 +11339,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>217.1765008177127</v>
+        <v>259.1782777381588</v>
       </c>
       <c r="AB16" t="n">
-        <v>297.150469569669</v>
+        <v>354.6191537399829</v>
       </c>
       <c r="AC16" t="n">
-        <v>268.7908458073309</v>
+        <v>320.7747994181462</v>
       </c>
       <c r="AD16" t="n">
-        <v>217176.5008177127</v>
+        <v>259178.2777381588</v>
       </c>
       <c r="AE16" t="n">
-        <v>297150.469569669</v>
+        <v>354619.1537399829</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.59560164250878e-06</v>
+        <v>5.263825541864147e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>268790.8458073309</v>
+        <v>320774.7994181463</v>
       </c>
     </row>
     <row r="17">
@@ -11445,28 +11445,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>215.8653399238968</v>
+        <v>257.8671168443398</v>
       </c>
       <c r="AB17" t="n">
-        <v>295.3564813904149</v>
+        <v>352.8251655605565</v>
       </c>
       <c r="AC17" t="n">
-        <v>267.1680733420259</v>
+        <v>319.1520269527924</v>
       </c>
       <c r="AD17" t="n">
-        <v>215865.3399238968</v>
+        <v>257867.1168443398</v>
       </c>
       <c r="AE17" t="n">
-        <v>295356.4813904149</v>
+        <v>352825.1655605565</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.601010450416495e-06</v>
+        <v>5.271743833167352e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.73046875</v>
       </c>
       <c r="AH17" t="n">
-        <v>267168.0733420259</v>
+        <v>319152.0269527924</v>
       </c>
     </row>
     <row r="18">
@@ -11551,28 +11551,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>213.578453484481</v>
+        <v>255.580230404924</v>
       </c>
       <c r="AB18" t="n">
-        <v>292.2274624736986</v>
+        <v>349.6961466438401</v>
       </c>
       <c r="AC18" t="n">
-        <v>264.3376835991144</v>
+        <v>316.3216372098807</v>
       </c>
       <c r="AD18" t="n">
-        <v>213578.453484481</v>
+        <v>255580.230404924</v>
       </c>
       <c r="AE18" t="n">
-        <v>292227.4624736985</v>
+        <v>349696.1466438401</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.612310995509399e-06</v>
+        <v>5.288287406068689e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.704427083333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>264337.6835991144</v>
+        <v>316321.6372098807</v>
       </c>
     </row>
     <row r="19">
@@ -11657,28 +11657,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>211.5516931385142</v>
+        <v>253.5534700589571</v>
       </c>
       <c r="AB19" t="n">
-        <v>289.4543595539922</v>
+        <v>346.9230437241338</v>
       </c>
       <c r="AC19" t="n">
-        <v>261.8292417299895</v>
+        <v>313.813195340756</v>
       </c>
       <c r="AD19" t="n">
-        <v>211551.6931385142</v>
+        <v>253553.4700589571</v>
       </c>
       <c r="AE19" t="n">
-        <v>289454.3595539922</v>
+        <v>346923.0437241337</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.622549096191858e-06</v>
+        <v>5.303275600321183e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>261829.2417299895</v>
+        <v>313813.195340756</v>
       </c>
     </row>
     <row r="20">
@@ -11763,28 +11763,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>212.0624867212093</v>
+        <v>254.0642636416523</v>
       </c>
       <c r="AB20" t="n">
-        <v>290.1532498684577</v>
+        <v>347.6219340385994</v>
       </c>
       <c r="AC20" t="n">
-        <v>262.4614309337414</v>
+        <v>314.4453845445078</v>
       </c>
       <c r="AD20" t="n">
-        <v>212062.4867212093</v>
+        <v>254064.2636416523</v>
       </c>
       <c r="AE20" t="n">
-        <v>290153.2498684577</v>
+        <v>347621.9340385994</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.62119689421493e-06</v>
+        <v>5.301296027495383e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.681640625</v>
       </c>
       <c r="AH20" t="n">
-        <v>262461.4309337414</v>
+        <v>314445.3845445078</v>
       </c>
     </row>
     <row r="21">
@@ -11869,28 +11869,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>212.744655278441</v>
+        <v>254.746432198884</v>
       </c>
       <c r="AB21" t="n">
-        <v>291.0866229836145</v>
+        <v>348.5553071537561</v>
       </c>
       <c r="AC21" t="n">
-        <v>263.3057242287853</v>
+        <v>315.2896778395517</v>
       </c>
       <c r="AD21" t="n">
-        <v>212744.655278441</v>
+        <v>254746.432198884</v>
       </c>
       <c r="AE21" t="n">
-        <v>291086.6229836145</v>
+        <v>348555.3071537561</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.620907136648445e-06</v>
+        <v>5.300871833318425e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.681640625</v>
       </c>
       <c r="AH21" t="n">
-        <v>263305.7242287853</v>
+        <v>315289.6778395517</v>
       </c>
     </row>
   </sheetData>
@@ -12166,28 +12166,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.1915418256127</v>
+        <v>308.6246820304596</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.7420346002665</v>
+        <v>422.2739055141089</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.5041983156241</v>
+        <v>381.9726766369903</v>
       </c>
       <c r="AD2" t="n">
-        <v>262191.5418256127</v>
+        <v>308624.6820304596</v>
       </c>
       <c r="AE2" t="n">
-        <v>358742.0346002665</v>
+        <v>422273.9055141089</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.062016672201198e-06</v>
+        <v>4.737317745539114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>324504.1983156241</v>
+        <v>381972.6766369903</v>
       </c>
     </row>
     <row r="3">
@@ -12272,28 +12272,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.0738050677706</v>
+        <v>237.9102487389693</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.381562610039</v>
+        <v>325.5192981839195</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.3858485645409</v>
+        <v>294.4521932345474</v>
       </c>
       <c r="AD3" t="n">
-        <v>199073.8050677706</v>
+        <v>237910.2487389693</v>
       </c>
       <c r="AE3" t="n">
-        <v>272381.562610039</v>
+        <v>325519.2981839195</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.647993394131363e-06</v>
+        <v>5.643896063180034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.615885416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>246385.8485645409</v>
+        <v>294452.1932345474</v>
       </c>
     </row>
     <row r="4">
@@ -12378,28 +12378,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.4993648177092</v>
+        <v>216.5686092632192</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.808414597876</v>
+        <v>296.3187255265289</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.5852957310758</v>
+        <v>268.0384822483076</v>
       </c>
       <c r="AD4" t="n">
-        <v>185499.3648177092</v>
+        <v>216568.6092632192</v>
       </c>
       <c r="AE4" t="n">
-        <v>253808.414597876</v>
+        <v>296318.7255265288</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.849426260286868e-06</v>
+        <v>5.955537570568461e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>229585.2957310758</v>
+        <v>268038.4822483076</v>
       </c>
     </row>
     <row r="5">
@@ -12484,28 +12484,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.1822450454109</v>
+        <v>208.9333478620381</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.8508555817953</v>
+        <v>285.8718240334783</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.6278967333644</v>
+        <v>258.5886183714321</v>
       </c>
       <c r="AD5" t="n">
-        <v>170182.2450454109</v>
+        <v>208933.3478620381</v>
       </c>
       <c r="AE5" t="n">
-        <v>232850.8555817953</v>
+        <v>285871.8240334783</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.951705441657426e-06</v>
+        <v>6.113776088766224e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.876953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>210627.8967333644</v>
+        <v>258588.6183714321</v>
       </c>
     </row>
     <row r="6">
@@ -12590,28 +12590,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.7460341537264</v>
+        <v>203.4971369703535</v>
       </c>
       <c r="AB6" t="n">
-        <v>225.4127920110979</v>
+        <v>278.4337604627808</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.8997115104642</v>
+        <v>251.8604331485319</v>
       </c>
       <c r="AD6" t="n">
-        <v>164746.0341537264</v>
+        <v>203497.1369703535</v>
       </c>
       <c r="AE6" t="n">
-        <v>225412.7920110979</v>
+        <v>278433.7604627808</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.013676494648018e-06</v>
+        <v>6.20965295701039e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.740234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>203899.7115104642</v>
+        <v>251860.4331485319</v>
       </c>
     </row>
     <row r="7">
@@ -12696,28 +12696,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.903461771185</v>
+        <v>202.6545645878121</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.2599473056353</v>
+        <v>277.2809157573183</v>
       </c>
       <c r="AC7" t="n">
-        <v>202.8568926856629</v>
+        <v>250.8176143237307</v>
       </c>
       <c r="AD7" t="n">
-        <v>163903.461771185</v>
+        <v>202654.5645878121</v>
       </c>
       <c r="AE7" t="n">
-        <v>224259.9473056353</v>
+        <v>277280.9157573183</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.019819712074911e-06</v>
+        <v>6.219157272645028e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.727213541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>202856.8926856629</v>
+        <v>250817.6143237306</v>
       </c>
     </row>
   </sheetData>
@@ -12993,28 +12993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.1855873398681</v>
+        <v>403.2505050675084</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.0346373455201</v>
+        <v>551.7451311900835</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.6979982725638</v>
+        <v>499.0873502484562</v>
       </c>
       <c r="AD2" t="n">
-        <v>347185.5873398681</v>
+        <v>403250.5050675084</v>
       </c>
       <c r="AE2" t="n">
-        <v>475034.6373455201</v>
+        <v>551745.1311900835</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608057027738811e-06</v>
+        <v>3.941540855367729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.86783854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>429697.9982725638</v>
+        <v>499087.3502484562</v>
       </c>
     </row>
     <row r="3">
@@ -13099,28 +13099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.2537309093326</v>
+        <v>288.2758071220381</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.6717068116313</v>
+        <v>394.4316771354043</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.2539158458652</v>
+        <v>356.7876714579363</v>
       </c>
       <c r="AD3" t="n">
-        <v>248253.7309093326</v>
+        <v>288275.8071220381</v>
       </c>
       <c r="AE3" t="n">
-        <v>339671.7068116313</v>
+        <v>394431.6771354043</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293812603603244e-06</v>
+        <v>4.977919120995354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>307253.9158458652</v>
+        <v>356787.6714579363</v>
       </c>
     </row>
     <row r="4">
@@ -13205,28 +13205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.9964444877764</v>
+        <v>259.9331798459099</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.0088409061829</v>
+        <v>355.6520441077383</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.2809795987472</v>
+        <v>321.7091121788739</v>
       </c>
       <c r="AD4" t="n">
-        <v>219996.4444877764</v>
+        <v>259933.1798459099</v>
       </c>
       <c r="AE4" t="n">
-        <v>301008.8409061828</v>
+        <v>355652.0441077383</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.537657429481966e-06</v>
+        <v>5.34644033558103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.488932291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>272280.9795987472</v>
+        <v>321709.1121788739</v>
       </c>
     </row>
     <row r="5">
@@ -13311,28 +13311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>209.9168260473743</v>
+        <v>242.0027776029033</v>
       </c>
       <c r="AB5" t="n">
-        <v>287.2174622746501</v>
+        <v>331.1188767251822</v>
       </c>
       <c r="AC5" t="n">
-        <v>259.8058307874821</v>
+        <v>299.5173558588915</v>
       </c>
       <c r="AD5" t="n">
-        <v>209916.8260473743</v>
+        <v>242002.7776029033</v>
       </c>
       <c r="AE5" t="n">
-        <v>287217.4622746501</v>
+        <v>331118.8767251822</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.665095993873552e-06</v>
+        <v>5.539037469292614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.156901041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>259805.8307874821</v>
+        <v>299517.3558588915</v>
       </c>
     </row>
     <row r="6">
@@ -13417,28 +13417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>195.8758686594147</v>
+        <v>235.8978553635655</v>
       </c>
       <c r="AB6" t="n">
-        <v>268.0060049331316</v>
+        <v>322.7658527871636</v>
       </c>
       <c r="AC6" t="n">
-        <v>242.4278879711822</v>
+        <v>291.961532801972</v>
       </c>
       <c r="AD6" t="n">
-        <v>195875.8686594148</v>
+        <v>235897.8553635655</v>
       </c>
       <c r="AE6" t="n">
-        <v>268006.0049331316</v>
+        <v>322765.8527871636</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.735723353588953e-06</v>
+        <v>5.645776172037302e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>242427.8879711822</v>
+        <v>291961.532801972</v>
       </c>
     </row>
     <row r="7">
@@ -13523,28 +13523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.8439995004968</v>
+        <v>230.8659862046476</v>
       </c>
       <c r="AB7" t="n">
-        <v>261.1211795595035</v>
+        <v>315.8810274135355</v>
       </c>
       <c r="AC7" t="n">
-        <v>236.2001406682979</v>
+        <v>285.7337854990878</v>
       </c>
       <c r="AD7" t="n">
-        <v>190843.9995004968</v>
+        <v>230865.9862046476</v>
       </c>
       <c r="AE7" t="n">
-        <v>261121.1795595035</v>
+        <v>315881.0274135355</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.789956917399613e-06</v>
+        <v>5.727739029911327e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>236200.1406682979</v>
+        <v>285733.7854990878</v>
       </c>
     </row>
     <row r="8">
@@ -13629,28 +13629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>186.6148281263968</v>
+        <v>226.6368148305475</v>
       </c>
       <c r="AB8" t="n">
-        <v>255.3346407075897</v>
+        <v>310.0944885616216</v>
       </c>
       <c r="AC8" t="n">
-        <v>230.9658609629507</v>
+        <v>280.4995057937404</v>
       </c>
       <c r="AD8" t="n">
-        <v>186614.8281263968</v>
+        <v>226636.8148305475</v>
       </c>
       <c r="AE8" t="n">
-        <v>255334.6407075897</v>
+        <v>310094.4885616216</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.830580537440296e-06</v>
+        <v>5.789133261854986e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>230965.8609629507</v>
+        <v>280499.5057937404</v>
       </c>
     </row>
     <row r="9">
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>183.53302660985</v>
+        <v>223.5550133140007</v>
       </c>
       <c r="AB9" t="n">
-        <v>251.1179839131651</v>
+        <v>305.8778317671971</v>
       </c>
       <c r="AC9" t="n">
-        <v>227.1516359748697</v>
+        <v>276.6852808056594</v>
       </c>
       <c r="AD9" t="n">
-        <v>183533.02660985</v>
+        <v>223555.0133140007</v>
       </c>
       <c r="AE9" t="n">
-        <v>251117.9839131651</v>
+        <v>305877.8317671971</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.853985516499268e-06</v>
+        <v>5.824505065538262e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.707682291666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>227151.6359748697</v>
+        <v>276685.2808056594</v>
       </c>
     </row>
     <row r="10">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>181.1448375378731</v>
+        <v>221.1668242420238</v>
       </c>
       <c r="AB10" t="n">
-        <v>247.850358265422</v>
+        <v>302.6102061194539</v>
       </c>
       <c r="AC10" t="n">
-        <v>224.1958679328047</v>
+        <v>273.7295127635945</v>
       </c>
       <c r="AD10" t="n">
-        <v>181144.8375378731</v>
+        <v>221166.8242420238</v>
       </c>
       <c r="AE10" t="n">
-        <v>247850.358265422</v>
+        <v>302610.2061194539</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.869657572961665e-06</v>
+        <v>5.848190149942924e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH10" t="n">
-        <v>224195.8679328047</v>
+        <v>273729.5127635945</v>
       </c>
     </row>
     <row r="11">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>181.6528877412457</v>
+        <v>221.6748744453965</v>
       </c>
       <c r="AB11" t="n">
-        <v>248.5454949672691</v>
+        <v>303.3053428213011</v>
       </c>
       <c r="AC11" t="n">
-        <v>224.8246617634582</v>
+        <v>274.358306594248</v>
       </c>
       <c r="AD11" t="n">
-        <v>181652.8877412457</v>
+        <v>221674.8744453964</v>
       </c>
       <c r="AE11" t="n">
-        <v>248545.4949672692</v>
+        <v>303305.3428213011</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.86924515042318e-06</v>
+        <v>5.847566858248063e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.675130208333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>224824.6617634582</v>
+        <v>274358.306594248</v>
       </c>
     </row>
   </sheetData>
@@ -14244,28 +14244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.661330604034</v>
+        <v>244.5407296443109</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.7631497867514</v>
+        <v>334.5914146747762</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.7766316317602</v>
+        <v>302.658479660315</v>
       </c>
       <c r="AD2" t="n">
-        <v>206661.330604034</v>
+        <v>244540.729644311</v>
       </c>
       <c r="AE2" t="n">
-        <v>282763.1497867514</v>
+        <v>334591.4146747761</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.454848435027338e-06</v>
+        <v>5.460346460014397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>255776.6316317602</v>
+        <v>302658.479660315</v>
       </c>
     </row>
     <row r="3">
@@ -14350,28 +14350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.0365471485739</v>
+        <v>199.2718832056892</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.2832611747198</v>
+        <v>272.6525818569298</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.2099113363671</v>
+        <v>246.6310021148864</v>
       </c>
       <c r="AD3" t="n">
-        <v>169036.5471485739</v>
+        <v>199271.8832056892</v>
       </c>
       <c r="AE3" t="n">
-        <v>231283.2611747198</v>
+        <v>272652.5818569298</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.954410675932149e-06</v>
+        <v>6.249898582193054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.215494791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>209209.9113363671</v>
+        <v>246631.0021148864</v>
       </c>
     </row>
     <row r="4">
@@ -14456,28 +14456,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.0814649128495</v>
+        <v>188.7901822439831</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.7163255374908</v>
+        <v>258.3110561811202</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.9876095564367</v>
+        <v>233.6582115211138</v>
       </c>
       <c r="AD4" t="n">
-        <v>151081.4649128495</v>
+        <v>188790.1822439831</v>
       </c>
       <c r="AE4" t="n">
-        <v>206716.3255374908</v>
+        <v>258311.0561811202</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.116491367133173e-06</v>
+        <v>6.506065168102689e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.850911458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>186987.6095564367</v>
+        <v>233658.2115211138</v>
       </c>
     </row>
     <row r="5">
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.2026184274995</v>
+        <v>187.9113357586331</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.513849004265</v>
+        <v>257.1085796478944</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.8998956958552</v>
+        <v>232.5704976605323</v>
       </c>
       <c r="AD5" t="n">
-        <v>150202.6184274995</v>
+        <v>187911.3357586331</v>
       </c>
       <c r="AE5" t="n">
-        <v>205513.849004265</v>
+        <v>257108.5796478944</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.138430466218394e-06</v>
+        <v>6.540739650725815e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.805338541666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>185899.8956958551</v>
+        <v>232570.4976605322</v>
       </c>
     </row>
   </sheetData>
@@ -14859,28 +14859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>631.2099098257877</v>
+        <v>707.392212843179</v>
       </c>
       <c r="AB2" t="n">
-        <v>863.6492456395213</v>
+        <v>967.8852335539229</v>
       </c>
       <c r="AC2" t="n">
-        <v>781.2237737750139</v>
+        <v>875.5116252989928</v>
       </c>
       <c r="AD2" t="n">
-        <v>631209.9098257876</v>
+        <v>707392.212843179</v>
       </c>
       <c r="AE2" t="n">
-        <v>863649.2456395213</v>
+        <v>967885.233553923</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.833004136767511e-06</v>
+        <v>2.672311598505882e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.99869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>781223.7737750139</v>
+        <v>875511.6252989928</v>
       </c>
     </row>
     <row r="3">
@@ -14965,28 +14965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.5757166350051</v>
+        <v>405.4208125496469</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.1461382766211</v>
+        <v>554.7146416343539</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.8444717463811</v>
+        <v>501.7734547836596</v>
       </c>
       <c r="AD3" t="n">
-        <v>354575.716635005</v>
+        <v>405420.8125496469</v>
       </c>
       <c r="AE3" t="n">
-        <v>485146.1382766211</v>
+        <v>554714.6416343539</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.687097918092655e-06</v>
+        <v>3.917483211741808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.59505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>438844.4717463811</v>
+        <v>501773.4547836597</v>
       </c>
     </row>
     <row r="4">
@@ -15071,28 +15071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.1900799072084</v>
+        <v>345.4757418233895</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.8380431313524</v>
+        <v>472.6951512768138</v>
       </c>
       <c r="AC4" t="n">
-        <v>375.2464825237456</v>
+        <v>427.5817894707655</v>
       </c>
       <c r="AD4" t="n">
-        <v>303190.0799072084</v>
+        <v>345475.7418233895</v>
       </c>
       <c r="AE4" t="n">
-        <v>414838.0431313524</v>
+        <v>472695.1512768138</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.001053718019414e-06</v>
+        <v>4.375195067778324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.38411458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>375246.4825237456</v>
+        <v>427581.7894707655</v>
       </c>
     </row>
     <row r="5">
@@ -15177,28 +15177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>276.7889531642545</v>
+        <v>319.159866426456</v>
       </c>
       <c r="AB5" t="n">
-        <v>378.7148567861337</v>
+        <v>436.6886095842444</v>
       </c>
       <c r="AC5" t="n">
-        <v>342.5708423841041</v>
+        <v>395.0116615818363</v>
       </c>
       <c r="AD5" t="n">
-        <v>276788.9531642544</v>
+        <v>319159.866426456</v>
       </c>
       <c r="AE5" t="n">
-        <v>378714.8567861337</v>
+        <v>436688.6095842444</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.162051783713563e-06</v>
+        <v>4.609911940294611e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.853515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>342570.8423841042</v>
+        <v>395011.6615818363</v>
       </c>
     </row>
     <row r="6">
@@ -15283,28 +15283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>266.0411649266795</v>
+        <v>308.4120781888811</v>
       </c>
       <c r="AB6" t="n">
-        <v>364.0092587605312</v>
+        <v>421.9830115586419</v>
       </c>
       <c r="AC6" t="n">
-        <v>329.2687259946286</v>
+        <v>381.7095451923608</v>
       </c>
       <c r="AD6" t="n">
-        <v>266041.1649266795</v>
+        <v>308412.0781888812</v>
       </c>
       <c r="AE6" t="n">
-        <v>364009.2587605311</v>
+        <v>421983.0115586419</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.264661728079869e-06</v>
+        <v>4.759505571291911e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.544270833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>329268.7259946286</v>
+        <v>381709.5451923608</v>
       </c>
     </row>
     <row r="7">
@@ -15389,28 +15389,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>259.1293091616377</v>
+        <v>301.3296302232471</v>
       </c>
       <c r="AB7" t="n">
-        <v>354.5521527732454</v>
+        <v>412.2924937965092</v>
       </c>
       <c r="AC7" t="n">
-        <v>320.7141929296379</v>
+        <v>372.9438768447189</v>
       </c>
       <c r="AD7" t="n">
-        <v>259129.3091616377</v>
+        <v>301329.6302232471</v>
       </c>
       <c r="AE7" t="n">
-        <v>354552.1527732454</v>
+        <v>412292.4937965092</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.332334517881155e-06</v>
+        <v>4.858164803675392e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.348958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>320714.1929296379</v>
+        <v>372943.8768447189</v>
       </c>
     </row>
     <row r="8">
@@ -15495,28 +15495,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>254.1788050701824</v>
+        <v>288.075625188498</v>
       </c>
       <c r="AB8" t="n">
-        <v>347.7786546743255</v>
+        <v>394.1577793825311</v>
       </c>
       <c r="AC8" t="n">
-        <v>314.5871479827191</v>
+        <v>356.5399141221794</v>
       </c>
       <c r="AD8" t="n">
-        <v>254178.8050701825</v>
+        <v>288075.625188498</v>
       </c>
       <c r="AE8" t="n">
-        <v>347778.6546743255</v>
+        <v>394157.7793825311</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.380863661345444e-06</v>
+        <v>4.928914776544451e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.215494791666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>314587.1479827191</v>
+        <v>356539.9141221794</v>
       </c>
     </row>
     <row r="9">
@@ -15601,28 +15601,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>249.4892316007919</v>
+        <v>283.3860517191074</v>
       </c>
       <c r="AB9" t="n">
-        <v>341.3621733641287</v>
+        <v>387.7412980723309</v>
       </c>
       <c r="AC9" t="n">
-        <v>308.7830466431773</v>
+        <v>350.7358127826367</v>
       </c>
       <c r="AD9" t="n">
-        <v>249489.2316007919</v>
+        <v>283386.0517191074</v>
       </c>
       <c r="AE9" t="n">
-        <v>341362.1733641287</v>
+        <v>387741.2980723309</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.426521257859184e-06</v>
+        <v>4.995478360486348e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.091796875</v>
       </c>
       <c r="AH9" t="n">
-        <v>308783.0466431773</v>
+        <v>350735.8127826367</v>
       </c>
     </row>
     <row r="10">
@@ -15707,28 +15707,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>246.5137695655917</v>
+        <v>280.4105896839071</v>
       </c>
       <c r="AB10" t="n">
-        <v>337.2910149394492</v>
+        <v>383.6701396476494</v>
       </c>
       <c r="AC10" t="n">
-        <v>305.1004338646412</v>
+        <v>347.0532000041</v>
       </c>
       <c r="AD10" t="n">
-        <v>246513.7695655917</v>
+        <v>280410.5896839071</v>
       </c>
       <c r="AE10" t="n">
-        <v>337291.0149394492</v>
+        <v>383670.1396476494</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.453418080962665e-06</v>
+        <v>5.03469087010411e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.0234375</v>
       </c>
       <c r="AH10" t="n">
-        <v>305100.4338646412</v>
+        <v>347053.2000041</v>
       </c>
     </row>
     <row r="11">
@@ -15813,28 +15813,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>234.7534751376809</v>
+        <v>277.0390475453138</v>
       </c>
       <c r="AB11" t="n">
-        <v>321.2000612756166</v>
+        <v>379.0570469516846</v>
       </c>
       <c r="AC11" t="n">
-        <v>290.5451782346844</v>
+        <v>342.8803744005218</v>
       </c>
       <c r="AD11" t="n">
-        <v>234753.4751376809</v>
+        <v>277039.0475453138</v>
       </c>
       <c r="AE11" t="n">
-        <v>321200.0612756166</v>
+        <v>379057.0469516846</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.480027749371091e-06</v>
+        <v>5.073484740829156e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.951822916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>290545.1782346844</v>
+        <v>342880.3744005218</v>
       </c>
     </row>
     <row r="12">
@@ -15919,28 +15919,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>232.497467850954</v>
+        <v>274.7830402585869</v>
       </c>
       <c r="AB12" t="n">
-        <v>318.1132925779012</v>
+        <v>375.9702782539676</v>
       </c>
       <c r="AC12" t="n">
-        <v>287.7530064091709</v>
+        <v>340.0882025750079</v>
       </c>
       <c r="AD12" t="n">
-        <v>232497.467850954</v>
+        <v>274783.0402585869</v>
       </c>
       <c r="AE12" t="n">
-        <v>318113.2925779012</v>
+        <v>375970.2782539676</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.497352749306074e-06</v>
+        <v>5.098742620689708e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.909505208333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>287753.0064091709</v>
+        <v>340088.2025750079</v>
       </c>
     </row>
     <row r="13">
@@ -16025,28 +16025,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>230.0067840100753</v>
+        <v>272.2923564177082</v>
       </c>
       <c r="AB13" t="n">
-        <v>314.7054290655967</v>
+        <v>372.5624147416613</v>
       </c>
       <c r="AC13" t="n">
-        <v>284.6703846075131</v>
+        <v>337.0055807733495</v>
       </c>
       <c r="AD13" t="n">
-        <v>230006.7840100753</v>
+        <v>272292.3564177082</v>
       </c>
       <c r="AE13" t="n">
-        <v>314705.4290655967</v>
+        <v>372562.4147416613</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.514964903936112e-06</v>
+        <v>5.124419139442977e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.863932291666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>284670.3846075131</v>
+        <v>337005.5807733495</v>
       </c>
     </row>
     <row r="14">
@@ -16131,28 +16131,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>228.4054574267172</v>
+        <v>270.69102983435</v>
       </c>
       <c r="AB14" t="n">
-        <v>312.5144233887042</v>
+        <v>370.3714090647678</v>
       </c>
       <c r="AC14" t="n">
-        <v>282.6884854373269</v>
+        <v>335.023681603163</v>
       </c>
       <c r="AD14" t="n">
-        <v>228405.4574267172</v>
+        <v>270691.02983435</v>
       </c>
       <c r="AE14" t="n">
-        <v>312514.4233887042</v>
+        <v>370371.4090647678</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.525781064116515e-06</v>
+        <v>5.140187871068624e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.837890625</v>
       </c>
       <c r="AH14" t="n">
-        <v>282688.4854373269</v>
+        <v>335023.681603163</v>
       </c>
     </row>
     <row r="15">
@@ -16237,28 +16237,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>226.5821516989954</v>
+        <v>268.8677241066282</v>
       </c>
       <c r="AB15" t="n">
-        <v>310.0196960534649</v>
+        <v>367.8766817295272</v>
       </c>
       <c r="AC15" t="n">
-        <v>280.4318513775901</v>
+        <v>332.7670475434259</v>
       </c>
       <c r="AD15" t="n">
-        <v>226582.1516989954</v>
+        <v>268867.7241066282</v>
       </c>
       <c r="AE15" t="n">
-        <v>310019.6960534649</v>
+        <v>367876.6817295272</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.53468285966322e-06</v>
+        <v>5.153165676742831e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.815104166666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>280431.8513775902</v>
+        <v>332767.0475434259</v>
       </c>
     </row>
     <row r="16">
@@ -16343,28 +16343,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>224.5710864539688</v>
+        <v>266.8566588616016</v>
       </c>
       <c r="AB16" t="n">
-        <v>307.268067863284</v>
+        <v>365.1250535393449</v>
       </c>
       <c r="AC16" t="n">
-        <v>277.9428347199449</v>
+        <v>330.2780308857803</v>
       </c>
       <c r="AD16" t="n">
-        <v>224571.0864539688</v>
+        <v>266856.6588616016</v>
       </c>
       <c r="AE16" t="n">
-        <v>307268.067863284</v>
+        <v>365125.0535393449</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.544158964600034e-06</v>
+        <v>5.166980760202469e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.792317708333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>277942.8347199449</v>
+        <v>330278.0308857802</v>
       </c>
     </row>
     <row r="17">
@@ -16449,28 +16449,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>222.8490165706407</v>
+        <v>265.1345889782735</v>
       </c>
       <c r="AB17" t="n">
-        <v>304.9118558765543</v>
+        <v>362.7688415526139</v>
       </c>
       <c r="AC17" t="n">
-        <v>275.8114962982635</v>
+        <v>328.1466924640986</v>
       </c>
       <c r="AD17" t="n">
-        <v>222849.0165706407</v>
+        <v>265134.5889782735</v>
       </c>
       <c r="AE17" t="n">
-        <v>304911.8558765543</v>
+        <v>362768.8415526139</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.552390732524942e-06</v>
+        <v>5.17898174179367e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH17" t="n">
-        <v>275811.4962982635</v>
+        <v>328146.6924640986</v>
       </c>
     </row>
     <row r="18">
@@ -16555,28 +16555,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>221.6065147178269</v>
+        <v>263.8920871254596</v>
       </c>
       <c r="AB18" t="n">
-        <v>303.2118100262222</v>
+        <v>361.068795702281</v>
       </c>
       <c r="AC18" t="n">
-        <v>274.2737004378573</v>
+        <v>326.608896603692</v>
       </c>
       <c r="AD18" t="n">
-        <v>221606.5147178269</v>
+        <v>263892.0871254596</v>
       </c>
       <c r="AE18" t="n">
-        <v>303211.8100262222</v>
+        <v>361068.7957022809</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.560718218681536e-06</v>
+        <v>5.191122269682445e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>274273.7004378573</v>
+        <v>326608.896603692</v>
       </c>
     </row>
     <row r="19">
@@ -16661,28 +16661,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>219.6826047054435</v>
+        <v>261.9681771130762</v>
       </c>
       <c r="AB19" t="n">
-        <v>300.5794314703612</v>
+        <v>358.4364171464185</v>
       </c>
       <c r="AC19" t="n">
-        <v>271.8925523968002</v>
+        <v>324.2277485626346</v>
       </c>
       <c r="AD19" t="n">
-        <v>219682.6047054435</v>
+        <v>261968.1771130762</v>
       </c>
       <c r="AE19" t="n">
-        <v>300579.4314703611</v>
+        <v>358436.4171464185</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.57172581532531e-06</v>
+        <v>5.207170093903237e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>271892.5523968003</v>
+        <v>324227.7485626346</v>
       </c>
     </row>
     <row r="20">
@@ -16767,28 +16767,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>217.9465946490811</v>
+        <v>260.2321670567138</v>
       </c>
       <c r="AB20" t="n">
-        <v>298.2041459238889</v>
+        <v>356.061131599945</v>
       </c>
       <c r="AC20" t="n">
-        <v>269.7439607691484</v>
+        <v>322.0791569349823</v>
       </c>
       <c r="AD20" t="n">
-        <v>217946.5946490811</v>
+        <v>260232.1670567138</v>
       </c>
       <c r="AE20" t="n">
-        <v>298204.1459238889</v>
+        <v>356061.131599945</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.581584793188863e-06</v>
+        <v>5.221543362553164e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.701171875</v>
       </c>
       <c r="AH20" t="n">
-        <v>269743.9607691484</v>
+        <v>322079.1569349823</v>
       </c>
     </row>
     <row r="21">
@@ -16873,28 +16873,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>217.5171027590072</v>
+        <v>259.8026751666399</v>
       </c>
       <c r="AB21" t="n">
-        <v>297.6164961720451</v>
+        <v>355.473481848101</v>
       </c>
       <c r="AC21" t="n">
-        <v>269.2123954848487</v>
+        <v>321.5475916506826</v>
       </c>
       <c r="AD21" t="n">
-        <v>217517.1027590072</v>
+        <v>259802.6751666399</v>
       </c>
       <c r="AE21" t="n">
-        <v>297616.4961720451</v>
+        <v>355473.481848101</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.579000400933369e-06</v>
+        <v>5.217775612518717e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.704427083333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>269212.3954848488</v>
+        <v>321547.5916506826</v>
       </c>
     </row>
     <row r="22">
@@ -16979,28 +16979,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>217.0620149718966</v>
+        <v>259.3475873795293</v>
       </c>
       <c r="AB22" t="n">
-        <v>296.9938249846646</v>
+        <v>354.8508106607201</v>
       </c>
       <c r="AC22" t="n">
-        <v>268.6491511616671</v>
+        <v>320.9843473275009</v>
       </c>
       <c r="AD22" t="n">
-        <v>217062.0149718966</v>
+        <v>259347.5873795293</v>
       </c>
       <c r="AE22" t="n">
-        <v>296993.8249846646</v>
+        <v>354850.8106607201</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.579383273860109e-06</v>
+        <v>5.218333797709006e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8.704427083333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>268649.1511616671</v>
+        <v>320984.3473275009</v>
       </c>
     </row>
     <row r="23">
@@ -17085,28 +17085,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>217.6917530834262</v>
+        <v>259.9773254910589</v>
       </c>
       <c r="AB23" t="n">
-        <v>297.8554604509436</v>
+        <v>355.7124461269996</v>
       </c>
       <c r="AC23" t="n">
-        <v>269.4285533483578</v>
+        <v>321.7637495141917</v>
       </c>
       <c r="AD23" t="n">
-        <v>217691.7530834262</v>
+        <v>259977.3254910589</v>
       </c>
       <c r="AE23" t="n">
-        <v>297855.4604509436</v>
+        <v>355712.4461269996</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.579000400933369e-06</v>
+        <v>5.217775612518717e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.704427083333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>269428.5533483577</v>
+        <v>321763.7495141916</v>
       </c>
     </row>
   </sheetData>
@@ -17382,28 +17382,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.5395428149662</v>
+        <v>219.6311013741641</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.7586555555941</v>
+        <v>300.508962340338</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.9220400079154</v>
+        <v>271.8288087416425</v>
       </c>
       <c r="AD2" t="n">
-        <v>182539.5428149662</v>
+        <v>219631.1013741641</v>
       </c>
       <c r="AE2" t="n">
-        <v>249758.6555555941</v>
+        <v>300508.962340338</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.698750232641693e-06</v>
+        <v>5.926266700533038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.08138020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>225922.0400079154</v>
+        <v>271828.8087416425</v>
       </c>
     </row>
     <row r="3">
@@ -17488,28 +17488,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.9719036532126</v>
+        <v>181.7134410859385</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.9346631054399</v>
+        <v>248.6283467249028</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.0896706968485</v>
+        <v>224.8996062656266</v>
       </c>
       <c r="AD3" t="n">
-        <v>151971.9036532126</v>
+        <v>181713.4410859385</v>
       </c>
       <c r="AE3" t="n">
-        <v>207934.6631054399</v>
+        <v>248628.3467249028</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.138627617922876e-06</v>
+        <v>6.631053597929888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>188089.6706968485</v>
+        <v>224899.6062656266</v>
       </c>
     </row>
     <row r="4">
@@ -17594,28 +17594,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.2843629108211</v>
+        <v>179.375831961468</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.6797424775721</v>
+        <v>245.4299267927677</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.0997810903023</v>
+        <v>222.0064390428028</v>
       </c>
       <c r="AD4" t="n">
-        <v>142284.3629108211</v>
+        <v>179375.831961468</v>
       </c>
       <c r="AE4" t="n">
-        <v>194679.7424775721</v>
+        <v>245429.9267927677</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.185822795718671e-06</v>
+        <v>6.706671358796425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.909505208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>176099.7810903023</v>
+        <v>222006.4390428028</v>
       </c>
     </row>
   </sheetData>
@@ -17891,28 +17891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.6487613951296</v>
+        <v>513.1959998029193</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.4387371454558</v>
+        <v>702.1774075399724</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.938619074056</v>
+        <v>635.1625812765377</v>
       </c>
       <c r="AD2" t="n">
-        <v>455648.7613951295</v>
+        <v>513195.9998029193</v>
       </c>
       <c r="AE2" t="n">
-        <v>623438.7371454558</v>
+        <v>702177.4075399723</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.238752069745992e-06</v>
+        <v>3.324195780821862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.46940104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>563938.6190740559</v>
+        <v>635162.5812765377</v>
       </c>
     </row>
     <row r="3">
@@ -17997,28 +17997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.1986570232186</v>
+        <v>338.5125931004844</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.6943610834637</v>
+        <v>463.1678640016939</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.9298466221809</v>
+        <v>418.9637731215514</v>
       </c>
       <c r="AD3" t="n">
-        <v>289198.6570232186</v>
+        <v>338512.5931004844</v>
       </c>
       <c r="AE3" t="n">
-        <v>395694.3610834637</v>
+        <v>463167.8640016939</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.005701538632171e-06</v>
+        <v>4.462995482239567e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.77799479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>357929.846622181</v>
+        <v>418963.7731215514</v>
       </c>
     </row>
     <row r="4">
@@ -18103,28 +18103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.1734693507225</v>
+        <v>293.3395334605902</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.0348658737937</v>
+        <v>401.3600909076509</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.1052225343775</v>
+        <v>363.0548471438495</v>
       </c>
       <c r="AD4" t="n">
-        <v>252173.4693507225</v>
+        <v>293339.5334605902</v>
       </c>
       <c r="AE4" t="n">
-        <v>345034.8658737937</v>
+        <v>401360.0909076509</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.282945760809009e-06</v>
+        <v>4.874659679482297e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.866536458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>312105.2225343775</v>
+        <v>363054.8471438495</v>
       </c>
     </row>
     <row r="5">
@@ -18209,28 +18209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>238.7548188321279</v>
+        <v>279.7502907414033</v>
       </c>
       <c r="AB5" t="n">
-        <v>326.6748762451815</v>
+        <v>382.7666895041821</v>
       </c>
       <c r="AC5" t="n">
-        <v>295.4974845475068</v>
+        <v>346.235973874325</v>
       </c>
       <c r="AD5" t="n">
-        <v>238754.8188321279</v>
+        <v>279750.2907414032</v>
       </c>
       <c r="AE5" t="n">
-        <v>326674.8762451814</v>
+        <v>382766.6895041821</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.431718234661979e-06</v>
+        <v>5.095563475203001e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.440104166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>295497.4845475068</v>
+        <v>346235.973874325</v>
       </c>
     </row>
     <row r="6">
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>230.7997809061693</v>
+        <v>263.7327217026148</v>
       </c>
       <c r="AB6" t="n">
-        <v>315.7904424033859</v>
+        <v>360.8507449000384</v>
       </c>
       <c r="AC6" t="n">
-        <v>285.6518457951699</v>
+        <v>326.4116562639793</v>
       </c>
       <c r="AD6" t="n">
-        <v>230799.7809061693</v>
+        <v>263732.7217026148</v>
       </c>
       <c r="AE6" t="n">
-        <v>315790.4424033859</v>
+        <v>360850.7449000383</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.520583665532014e-06</v>
+        <v>5.227514705690352e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.202473958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>285651.8457951699</v>
+        <v>326411.6562639793</v>
       </c>
     </row>
     <row r="7">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>225.696178652417</v>
+        <v>258.6291194488625</v>
       </c>
       <c r="AB7" t="n">
-        <v>308.8074686447648</v>
+        <v>353.8677711414136</v>
       </c>
       <c r="AC7" t="n">
-        <v>279.3353172514041</v>
+        <v>320.0951277202125</v>
       </c>
       <c r="AD7" t="n">
-        <v>225696.1786524171</v>
+        <v>258629.1194488624</v>
       </c>
       <c r="AE7" t="n">
-        <v>308807.4686447647</v>
+        <v>353867.7711414136</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.575714067213984e-06</v>
+        <v>5.30937470758284e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.059244791666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>279335.3172514042</v>
+        <v>320095.1277202124</v>
       </c>
     </row>
     <row r="8">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>213.1868122310311</v>
+        <v>254.2675354863233</v>
       </c>
       <c r="AB8" t="n">
-        <v>291.6916016327359</v>
+        <v>347.9000595441992</v>
       </c>
       <c r="AC8" t="n">
-        <v>263.8529645647276</v>
+        <v>314.6969661422048</v>
       </c>
       <c r="AD8" t="n">
-        <v>213186.8122310311</v>
+        <v>254267.5354863234</v>
       </c>
       <c r="AE8" t="n">
-        <v>291691.6016327359</v>
+        <v>347900.0595441991</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.618803352283105e-06</v>
+        <v>5.373355539386897e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.951822916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>263852.9645647276</v>
+        <v>314696.9661422048</v>
       </c>
     </row>
     <row r="9">
@@ -18633,28 +18633,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>209.1841816225106</v>
+        <v>250.2649048778029</v>
       </c>
       <c r="AB9" t="n">
-        <v>286.2150258505611</v>
+        <v>342.4234837620244</v>
       </c>
       <c r="AC9" t="n">
-        <v>258.8990654887795</v>
+        <v>309.7430670662568</v>
       </c>
       <c r="AD9" t="n">
-        <v>209184.1816225105</v>
+        <v>250264.9048778029</v>
       </c>
       <c r="AE9" t="n">
-        <v>286215.0258505611</v>
+        <v>342423.4837620244</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.654230108598594e-06</v>
+        <v>5.425958717498315e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.863932291666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>258899.0654887795</v>
+        <v>309743.0670662568</v>
       </c>
     </row>
     <row r="10">
@@ -18739,28 +18739,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>207.2584576768126</v>
+        <v>248.339180932105</v>
       </c>
       <c r="AB10" t="n">
-        <v>283.580165391114</v>
+        <v>339.7886233025773</v>
       </c>
       <c r="AC10" t="n">
-        <v>256.5156724135313</v>
+        <v>307.3596739910085</v>
       </c>
       <c r="AD10" t="n">
-        <v>207258.4576768126</v>
+        <v>248339.180932105</v>
       </c>
       <c r="AE10" t="n">
-        <v>283580.165391114</v>
+        <v>339788.6233025773</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.668261492420178e-06</v>
+        <v>5.446793122312107e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.831380208333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>256515.6724135313</v>
+        <v>307359.6739910085</v>
       </c>
     </row>
     <row r="11">
@@ -18845,28 +18845,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>203.6429347278874</v>
+        <v>244.7236579831797</v>
       </c>
       <c r="AB11" t="n">
-        <v>278.6332473867817</v>
+        <v>334.8417052982451</v>
       </c>
       <c r="AC11" t="n">
-        <v>252.0408813204879</v>
+        <v>302.8848828979652</v>
       </c>
       <c r="AD11" t="n">
-        <v>203642.9347278874</v>
+        <v>244723.6579831797</v>
       </c>
       <c r="AE11" t="n">
-        <v>278633.2473867817</v>
+        <v>334841.7052982451</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.697717447109463e-06</v>
+        <v>5.490530596247445e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.759765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>252040.8813204879</v>
+        <v>302884.8828979651</v>
       </c>
     </row>
     <row r="12">
@@ -18951,28 +18951,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>200.834764219424</v>
+        <v>241.9154874747163</v>
       </c>
       <c r="AB12" t="n">
-        <v>274.7909846093648</v>
+        <v>330.999442520828</v>
       </c>
       <c r="AC12" t="n">
-        <v>248.5653187098967</v>
+        <v>299.409320287374</v>
       </c>
       <c r="AD12" t="n">
-        <v>200834.764219424</v>
+        <v>241915.4874747163</v>
       </c>
       <c r="AE12" t="n">
-        <v>274790.9846093648</v>
+        <v>330999.442520828</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.716425958871574e-06</v>
+        <v>5.518309802665834e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.717447916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>248565.3187098967</v>
+        <v>299409.320287374</v>
       </c>
     </row>
     <row r="13">
@@ -19057,28 +19057,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>199.1980289725685</v>
+        <v>240.2787522278609</v>
       </c>
       <c r="AB13" t="n">
-        <v>272.5515312369554</v>
+        <v>328.7599891484186</v>
       </c>
       <c r="AC13" t="n">
-        <v>246.5395956242568</v>
+        <v>297.3835972017341</v>
       </c>
       <c r="AD13" t="n">
-        <v>199198.0289725685</v>
+        <v>240278.7522278609</v>
       </c>
       <c r="AE13" t="n">
-        <v>272551.5312369554</v>
+        <v>328759.9891484187</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.724188000985643e-06</v>
+        <v>5.52983521809474e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>246539.5956242568</v>
+        <v>297383.5972017341</v>
       </c>
     </row>
     <row r="14">
@@ -19163,28 +19163,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>197.1549664819233</v>
+        <v>238.2356897372157</v>
       </c>
       <c r="AB14" t="n">
-        <v>269.7561230037002</v>
+        <v>325.9645809151635</v>
       </c>
       <c r="AC14" t="n">
-        <v>244.0109772294025</v>
+        <v>294.8549788068798</v>
       </c>
       <c r="AD14" t="n">
-        <v>197154.9664819233</v>
+        <v>238235.6897372157</v>
       </c>
       <c r="AE14" t="n">
-        <v>269756.1230037002</v>
+        <v>325964.5809151635</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.732945176704078e-06</v>
+        <v>5.542838250886327e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>244010.9772294025</v>
+        <v>294854.9788068798</v>
       </c>
     </row>
     <row r="15">
@@ -19269,28 +19269,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>196.326276735255</v>
+        <v>237.4069999905473</v>
       </c>
       <c r="AB15" t="n">
-        <v>268.6222731330977</v>
+        <v>324.830731044561</v>
       </c>
       <c r="AC15" t="n">
-        <v>242.9853403990817</v>
+        <v>293.829341976559</v>
       </c>
       <c r="AD15" t="n">
-        <v>196326.276735255</v>
+        <v>237406.9999905473</v>
       </c>
       <c r="AE15" t="n">
-        <v>268622.2731330977</v>
+        <v>324830.731044561</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.742199919224698e-06</v>
+        <v>5.556580092359253e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.655598958333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>242985.3403990816</v>
+        <v>293829.341976559</v>
       </c>
     </row>
   </sheetData>
@@ -19566,28 +19566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.0711050045524</v>
+        <v>603.9391539777262</v>
       </c>
       <c r="AB2" t="n">
-        <v>734.8443797721504</v>
+        <v>826.3361943873659</v>
       </c>
       <c r="AC2" t="n">
-        <v>664.7118635272602</v>
+        <v>747.4718277651679</v>
       </c>
       <c r="AD2" t="n">
-        <v>537071.1050045524</v>
+        <v>603939.1539777261</v>
       </c>
       <c r="AE2" t="n">
-        <v>734844.3797721504</v>
+        <v>826336.1943873659</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.025825383719726e-06</v>
+        <v>2.978859699545736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.66731770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>664711.8635272603</v>
+        <v>747471.8277651678</v>
       </c>
     </row>
     <row r="3">
@@ -19672,28 +19672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.8674658118592</v>
+        <v>366.6600859286437</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.4979988648667</v>
+        <v>501.6805054689247</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.0757337100626</v>
+        <v>453.8008221399814</v>
       </c>
       <c r="AD3" t="n">
-        <v>324867.4658118592</v>
+        <v>366660.0859286437</v>
       </c>
       <c r="AE3" t="n">
-        <v>444497.9988648667</v>
+        <v>501680.5054689247</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.843097769836044e-06</v>
+        <v>4.180611733120956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.16536458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>402075.7337100626</v>
+        <v>453800.8221399814</v>
       </c>
     </row>
     <row r="4">
@@ -19778,28 +19778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>281.1370959706987</v>
+        <v>322.8443752329117</v>
       </c>
       <c r="AB4" t="n">
-        <v>384.664177600433</v>
+        <v>441.7299170822934</v>
       </c>
       <c r="AC4" t="n">
-        <v>347.952368369811</v>
+        <v>399.571833767791</v>
       </c>
       <c r="AD4" t="n">
-        <v>281137.0959706987</v>
+        <v>322844.3752329117</v>
       </c>
       <c r="AE4" t="n">
-        <v>384664.1776004331</v>
+        <v>441729.9170822934</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.141360264363582e-06</v>
+        <v>4.619189575009121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>347952.368369811</v>
+        <v>399571.833767791</v>
       </c>
     </row>
     <row r="5">
@@ -19884,28 +19884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>257.4538689776153</v>
+        <v>299.246399585852</v>
       </c>
       <c r="AB5" t="n">
-        <v>352.2597415980952</v>
+        <v>409.4421257327758</v>
       </c>
       <c r="AC5" t="n">
-        <v>318.6405662597307</v>
+        <v>370.3655439084716</v>
       </c>
       <c r="AD5" t="n">
-        <v>257453.8689776153</v>
+        <v>299246.399585852</v>
       </c>
       <c r="AE5" t="n">
-        <v>352259.7415980952</v>
+        <v>409442.1257327758</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.294440393951105e-06</v>
+        <v>4.844285100267186e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>318640.5662597307</v>
+        <v>370365.5439084716</v>
       </c>
     </row>
     <row r="6">
@@ -19990,28 +19990,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>248.5395397955912</v>
+        <v>290.1614782032356</v>
       </c>
       <c r="AB6" t="n">
-        <v>340.0627631388082</v>
+        <v>397.0117354986356</v>
       </c>
       <c r="AC6" t="n">
-        <v>307.6076503060274</v>
+        <v>359.1214926721154</v>
       </c>
       <c r="AD6" t="n">
-        <v>248539.5397955912</v>
+        <v>290161.4782032356</v>
       </c>
       <c r="AE6" t="n">
-        <v>340062.7631388083</v>
+        <v>397011.7354986356</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.387653517445164e-06</v>
+        <v>4.981349636666364e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.368489583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>307607.6503060274</v>
+        <v>359121.4926721154</v>
       </c>
     </row>
     <row r="7">
@@ -20096,28 +20096,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.7221467798401</v>
+        <v>276.156260774981</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.1031493693948</v>
+        <v>377.8491791467115</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.4076909033761</v>
+        <v>341.7877838036022</v>
       </c>
       <c r="AD7" t="n">
-        <v>242722.1467798401</v>
+        <v>276156.260774981</v>
       </c>
       <c r="AE7" t="n">
-        <v>332103.1493693948</v>
+        <v>377849.1791467115</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.446155477797083e-06</v>
+        <v>5.06737340428091e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.208984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>300407.6909033761</v>
+        <v>341787.7838036022</v>
       </c>
     </row>
     <row r="8">
@@ -20202,28 +20202,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>238.2804763636326</v>
+        <v>271.7145903587734</v>
       </c>
       <c r="AB8" t="n">
-        <v>326.0258599532737</v>
+        <v>371.7718897305872</v>
       </c>
       <c r="AC8" t="n">
-        <v>294.9104094595984</v>
+        <v>336.2905023598236</v>
       </c>
       <c r="AD8" t="n">
-        <v>238280.4763636326</v>
+        <v>271714.5903587734</v>
       </c>
       <c r="AE8" t="n">
-        <v>326025.8599532737</v>
+        <v>371771.8897305873</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.493347059147632e-06</v>
+        <v>5.136765910156646e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.085286458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>294910.4094595984</v>
+        <v>336290.5023598236</v>
       </c>
     </row>
     <row r="9">
@@ -20308,28 +20308,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>226.1186278529479</v>
+        <v>267.8258176066126</v>
       </c>
       <c r="AB9" t="n">
-        <v>309.3854822780742</v>
+        <v>366.4510992905351</v>
       </c>
       <c r="AC9" t="n">
-        <v>279.8581660747979</v>
+        <v>331.4775206915937</v>
       </c>
       <c r="AD9" t="n">
-        <v>226118.6278529479</v>
+        <v>267825.8176066126</v>
       </c>
       <c r="AE9" t="n">
-        <v>309385.4822780741</v>
+        <v>366451.0992905351</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.529033254962303e-06</v>
+        <v>5.189240408401519e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.994140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>279858.1660747979</v>
+        <v>331477.5206915937</v>
       </c>
     </row>
     <row r="10">
@@ -20414,28 +20414,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>223.0923167564813</v>
+        <v>264.7995065101459</v>
       </c>
       <c r="AB10" t="n">
-        <v>305.2447499244679</v>
+        <v>362.3103669369266</v>
       </c>
       <c r="AC10" t="n">
-        <v>276.1126194054641</v>
+        <v>327.7319740222592</v>
       </c>
       <c r="AD10" t="n">
-        <v>223092.3167564813</v>
+        <v>264799.5065101459</v>
       </c>
       <c r="AE10" t="n">
-        <v>305244.7499244679</v>
+        <v>362310.3669369266</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.554384104448134e-06</v>
+        <v>5.226517374367823e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.929036458333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>276112.6194054641</v>
+        <v>327731.9740222592</v>
       </c>
     </row>
     <row r="11">
@@ -20520,28 +20520,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>219.5541660662465</v>
+        <v>261.261355819911</v>
       </c>
       <c r="AB11" t="n">
-        <v>300.403696057899</v>
+        <v>357.4693130703553</v>
       </c>
       <c r="AC11" t="n">
-        <v>271.7335889254572</v>
+        <v>323.3529435422517</v>
       </c>
       <c r="AD11" t="n">
-        <v>219554.1660662465</v>
+        <v>261261.3558199111</v>
       </c>
       <c r="AE11" t="n">
-        <v>300403.696057899</v>
+        <v>357469.3130703553</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.583927594425854e-06</v>
+        <v>5.269959377013169e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.857421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>271733.5889254573</v>
+        <v>323352.9435422517</v>
       </c>
     </row>
     <row r="12">
@@ -20626,28 +20626,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>216.9895965513853</v>
+        <v>258.6967863050498</v>
       </c>
       <c r="AB12" t="n">
-        <v>296.8947389068458</v>
+        <v>353.9603559193002</v>
       </c>
       <c r="AC12" t="n">
-        <v>268.5595217200471</v>
+        <v>320.1788763368411</v>
       </c>
       <c r="AD12" t="n">
-        <v>216989.5965513853</v>
+        <v>258696.7863050498</v>
       </c>
       <c r="AE12" t="n">
-        <v>296894.7389068458</v>
+        <v>353960.3559193002</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.602063202134949e-06</v>
+        <v>5.296626744973679e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.811848958333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>268559.5217200472</v>
+        <v>320178.8763368411</v>
       </c>
     </row>
     <row r="13">
@@ -20732,28 +20732,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>215.3808023451238</v>
+        <v>257.087992098785</v>
       </c>
       <c r="AB13" t="n">
-        <v>294.6935156988486</v>
+        <v>351.7591327111313</v>
       </c>
       <c r="AC13" t="n">
-        <v>266.5683801655844</v>
+        <v>318.1877347823294</v>
       </c>
       <c r="AD13" t="n">
-        <v>215380.8023451238</v>
+        <v>257087.9920987851</v>
       </c>
       <c r="AE13" t="n">
-        <v>294693.5156988486</v>
+        <v>351759.1327111312</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.610448483118724e-06</v>
+        <v>5.308956818331764e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.792317708333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>266568.3801655844</v>
+        <v>318187.7347823294</v>
       </c>
     </row>
     <row r="14">
@@ -20838,28 +20838,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>212.6226731942057</v>
+        <v>254.329862947867</v>
       </c>
       <c r="AB14" t="n">
-        <v>290.9197217144941</v>
+        <v>347.9853387267767</v>
       </c>
       <c r="AC14" t="n">
-        <v>263.1547517825423</v>
+        <v>314.7741063992873</v>
       </c>
       <c r="AD14" t="n">
-        <v>212622.6731942057</v>
+        <v>254329.862947867</v>
       </c>
       <c r="AE14" t="n">
-        <v>290919.7217144941</v>
+        <v>347985.3387267767</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.630241646371124e-06</v>
+        <v>5.338061526374685e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>263154.7517825423</v>
+        <v>314774.1063992873</v>
       </c>
     </row>
     <row r="15">
@@ -20944,28 +20944,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>210.8626614114156</v>
+        <v>252.5698511650769</v>
       </c>
       <c r="AB15" t="n">
-        <v>288.5115959470419</v>
+        <v>345.5772129593245</v>
       </c>
       <c r="AC15" t="n">
-        <v>260.9764541585092</v>
+        <v>312.5958087752543</v>
       </c>
       <c r="AD15" t="n">
-        <v>210862.6614114156</v>
+        <v>252569.8511650769</v>
       </c>
       <c r="AE15" t="n">
-        <v>288511.5959470419</v>
+        <v>345577.2129593245</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.639796966561937e-06</v>
+        <v>5.352112075085061e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.720703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>260976.4541585092</v>
+        <v>312595.8087752543</v>
       </c>
     </row>
     <row r="16">
@@ -21050,28 +21050,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>209.2511224558385</v>
+        <v>250.9583122094999</v>
       </c>
       <c r="AB16" t="n">
-        <v>286.3066172519415</v>
+        <v>343.3722342642241</v>
       </c>
       <c r="AC16" t="n">
-        <v>258.9819155353615</v>
+        <v>310.6012701521065</v>
       </c>
       <c r="AD16" t="n">
-        <v>209251.1224558385</v>
+        <v>250958.3122094999</v>
       </c>
       <c r="AE16" t="n">
-        <v>286306.6172519415</v>
+        <v>343372.2342642241</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.647889737743953e-06</v>
+        <v>5.364012029605073e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.701171875</v>
       </c>
       <c r="AH16" t="n">
-        <v>258981.9155353615</v>
+        <v>310601.2701521065</v>
       </c>
     </row>
     <row r="17">
@@ -21156,28 +21156,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>207.1626718644027</v>
+        <v>248.869861618064</v>
       </c>
       <c r="AB17" t="n">
-        <v>283.4491070168029</v>
+        <v>340.5147240290856</v>
       </c>
       <c r="AC17" t="n">
-        <v>256.3971220665229</v>
+        <v>308.0164766832679</v>
       </c>
       <c r="AD17" t="n">
-        <v>207162.6718644027</v>
+        <v>248869.861618064</v>
       </c>
       <c r="AE17" t="n">
-        <v>283449.1070168029</v>
+        <v>340514.7240290856</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.656762535063994e-06</v>
+        <v>5.37705896769328e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>256397.1220665228</v>
+        <v>308016.4766832679</v>
       </c>
     </row>
     <row r="18">
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>207.0073143791828</v>
+        <v>248.714504132844</v>
       </c>
       <c r="AB18" t="n">
-        <v>283.2365400516366</v>
+        <v>340.3021570639193</v>
       </c>
       <c r="AC18" t="n">
-        <v>256.2048421941723</v>
+        <v>307.8241968109173</v>
       </c>
       <c r="AD18" t="n">
-        <v>207007.3143791828</v>
+        <v>248714.504132844</v>
       </c>
       <c r="AE18" t="n">
-        <v>283236.5400516366</v>
+        <v>340302.1570639192</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.655299986055196e-06</v>
+        <v>5.374908373502916e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.681640625</v>
       </c>
       <c r="AH18" t="n">
-        <v>256204.8421941723</v>
+        <v>307824.1968109173</v>
       </c>
     </row>
     <row r="19">
@@ -21368,28 +21368,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>207.4462696381252</v>
+        <v>249.1534593917866</v>
       </c>
       <c r="AB19" t="n">
-        <v>283.8371380022607</v>
+        <v>340.9027550145433</v>
       </c>
       <c r="AC19" t="n">
-        <v>256.7481199193335</v>
+        <v>308.3674745360785</v>
       </c>
       <c r="AD19" t="n">
-        <v>207446.2696381252</v>
+        <v>249153.4593917865</v>
       </c>
       <c r="AE19" t="n">
-        <v>283837.1380022607</v>
+        <v>340902.7550145433</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.657152548133007e-06</v>
+        <v>5.377632459477376e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>256748.1199193335</v>
+        <v>308367.4745360785</v>
       </c>
     </row>
   </sheetData>
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>750.5467671611881</v>
+        <v>836.1107861893161</v>
       </c>
       <c r="AB2" t="n">
-        <v>1026.931198616393</v>
+        <v>1144.003664268783</v>
       </c>
       <c r="AC2" t="n">
-        <v>928.9223263274331</v>
+        <v>1034.821560170197</v>
       </c>
       <c r="AD2" t="n">
-        <v>750546.7671611881</v>
+        <v>836110.7861893161</v>
       </c>
       <c r="AE2" t="n">
-        <v>1026931.198616393</v>
+        <v>1144003.664268784</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.657225340088614e-06</v>
+        <v>2.397628059389496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.486328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>928922.3263274331</v>
+        <v>1034821.560170197</v>
       </c>
     </row>
     <row r="3">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.3026151199456</v>
+        <v>446.7093350239001</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.87047752767</v>
+        <v>611.2074196046819</v>
       </c>
       <c r="AC3" t="n">
-        <v>489.2505582689113</v>
+        <v>552.8746413126115</v>
       </c>
       <c r="AD3" t="n">
-        <v>395302.6151199456</v>
+        <v>446709.3350239001</v>
       </c>
       <c r="AE3" t="n">
-        <v>540870.47752767</v>
+        <v>611207.4196046819</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.538305675934466e-06</v>
+        <v>3.672350865454829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.0703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>489250.5582689113</v>
+        <v>552874.6413126115</v>
       </c>
     </row>
     <row r="4">
@@ -21877,28 +21877,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.4023668716376</v>
+        <v>377.808997267041</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.598118209911</v>
+        <v>516.9349378173747</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.975420612352</v>
+        <v>467.5993928748257</v>
       </c>
       <c r="AD4" t="n">
-        <v>326402.3668716376</v>
+        <v>377808.997267041</v>
       </c>
       <c r="AE4" t="n">
-        <v>446598.118209911</v>
+        <v>516934.9378173747</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.866757969472388e-06</v>
+        <v>4.147546613496703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.68684895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>403975.420612352</v>
+        <v>467599.3928748257</v>
       </c>
     </row>
     <row r="5">
@@ -21983,28 +21983,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>304.5901695582911</v>
+        <v>347.4148942539164</v>
       </c>
       <c r="AB5" t="n">
-        <v>416.7537075595599</v>
+        <v>475.3483851816283</v>
       </c>
       <c r="AC5" t="n">
-        <v>376.9793186275768</v>
+        <v>429.9818024555417</v>
       </c>
       <c r="AD5" t="n">
-        <v>304590.1695582911</v>
+        <v>347414.8942539164</v>
       </c>
       <c r="AE5" t="n">
-        <v>416753.7075595598</v>
+        <v>475348.3851816283</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.041901155224272e-06</v>
+        <v>4.400938959372326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.07161458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>376979.3186275768</v>
+        <v>429981.8024555417</v>
       </c>
     </row>
     <row r="6">
@@ -22089,28 +22089,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>283.7664644829024</v>
+        <v>326.6764405245484</v>
       </c>
       <c r="AB6" t="n">
-        <v>388.261795598382</v>
+        <v>446.9731178730997</v>
       </c>
       <c r="AC6" t="n">
-        <v>351.2066347553243</v>
+        <v>404.3146308340014</v>
       </c>
       <c r="AD6" t="n">
-        <v>283766.4644829024</v>
+        <v>326676.4405245484</v>
       </c>
       <c r="AE6" t="n">
-        <v>388261.795598382</v>
+        <v>446973.1178730997</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.150130421003243e-06</v>
+        <v>4.557522085517929e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>351206.6347553243</v>
+        <v>404314.6308340013</v>
       </c>
     </row>
     <row r="7">
@@ -22195,28 +22195,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>275.8390321962125</v>
+        <v>318.7490082378584</v>
       </c>
       <c r="AB7" t="n">
-        <v>377.4151330101034</v>
+        <v>436.126455284821</v>
       </c>
       <c r="AC7" t="n">
-        <v>341.3951624210844</v>
+        <v>394.5031584997615</v>
       </c>
       <c r="AD7" t="n">
-        <v>275839.0321962126</v>
+        <v>318749.0082378584</v>
       </c>
       <c r="AE7" t="n">
-        <v>377415.1330101034</v>
+        <v>436126.455284821</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.222879310087717e-06</v>
+        <v>4.662773178135799e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.505208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>341395.1624210844</v>
+        <v>394503.1584997615</v>
       </c>
     </row>
     <row r="8">
@@ -22301,28 +22301,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>269.2510750366087</v>
+        <v>311.9904588776624</v>
       </c>
       <c r="AB8" t="n">
-        <v>368.4011993841759</v>
+        <v>426.8791098840466</v>
       </c>
       <c r="AC8" t="n">
-        <v>333.2415059692801</v>
+        <v>386.1383667653061</v>
       </c>
       <c r="AD8" t="n">
-        <v>269251.0750366087</v>
+        <v>311990.4588776624</v>
       </c>
       <c r="AE8" t="n">
-        <v>368401.1993841759</v>
+        <v>426879.1098840466</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.284146485759116e-06</v>
+        <v>4.751412843458222e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.329427083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>333241.5059692801</v>
+        <v>386138.3667653061</v>
       </c>
     </row>
     <row r="9">
@@ -22407,28 +22407,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>265.3232966472729</v>
+        <v>299.6513669891406</v>
       </c>
       <c r="AB9" t="n">
-        <v>363.0270397105338</v>
+        <v>409.9962199998563</v>
       </c>
       <c r="AC9" t="n">
-        <v>328.3802485522099</v>
+        <v>370.8667561963782</v>
       </c>
       <c r="AD9" t="n">
-        <v>265323.2966472729</v>
+        <v>299651.3669891406</v>
       </c>
       <c r="AE9" t="n">
-        <v>363027.0397105337</v>
+        <v>409996.2199998563</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.319438637643564e-06</v>
+        <v>4.802472558505701e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.228515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>328380.2485522099</v>
+        <v>370866.7561963781</v>
       </c>
     </row>
     <row r="10">
@@ -22513,28 +22513,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>261.6764825798774</v>
+        <v>296.0045529217451</v>
       </c>
       <c r="AB10" t="n">
-        <v>358.0373078174412</v>
+        <v>405.0064881067638</v>
       </c>
       <c r="AC10" t="n">
-        <v>323.8667296678614</v>
+        <v>366.3532373120297</v>
       </c>
       <c r="AD10" t="n">
-        <v>261676.4825798773</v>
+        <v>296004.5529217451</v>
       </c>
       <c r="AE10" t="n">
-        <v>358037.3078174412</v>
+        <v>405006.4881067638</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.35397789028781e-06</v>
+        <v>4.852442999632169e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.134114583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>323866.7296678614</v>
+        <v>366353.2373120297</v>
       </c>
     </row>
     <row r="11">
@@ -22619,28 +22619,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>258.605263820508</v>
+        <v>292.9333341623758</v>
       </c>
       <c r="AB11" t="n">
-        <v>353.835130818263</v>
+        <v>400.8043111075856</v>
       </c>
       <c r="AC11" t="n">
-        <v>320.0656025436924</v>
+        <v>362.5521101878605</v>
       </c>
       <c r="AD11" t="n">
-        <v>258605.263820508</v>
+        <v>292933.3341623758</v>
       </c>
       <c r="AE11" t="n">
-        <v>353835.130818263</v>
+        <v>400804.3111075856</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.380141138884814e-06</v>
+        <v>4.890295268387367e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH11" t="n">
-        <v>320065.6025436923</v>
+        <v>362552.1101878606</v>
       </c>
     </row>
     <row r="12">
@@ -22725,28 +22725,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>256.2261184761628</v>
+        <v>290.5541888180337</v>
       </c>
       <c r="AB12" t="n">
-        <v>350.5798791974793</v>
+        <v>397.5490594869721</v>
       </c>
       <c r="AC12" t="n">
-        <v>317.1210275689273</v>
+        <v>359.607535213144</v>
       </c>
       <c r="AD12" t="n">
-        <v>256226.1184761628</v>
+        <v>290554.1888180337</v>
       </c>
       <c r="AE12" t="n">
-        <v>350579.8791974793</v>
+        <v>397549.0594869721</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.399340069509953e-06</v>
+        <v>4.918071753373194e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.013671875</v>
       </c>
       <c r="AH12" t="n">
-        <v>317121.0275689273</v>
+        <v>359607.535213144</v>
       </c>
     </row>
     <row r="13">
@@ -22831,28 +22831,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>245.214847703688</v>
+        <v>288.0394828907654</v>
       </c>
       <c r="AB13" t="n">
-        <v>335.5137727436053</v>
+        <v>394.1083278962877</v>
       </c>
       <c r="AC13" t="n">
-        <v>303.4928091695931</v>
+        <v>356.4951822163775</v>
       </c>
       <c r="AD13" t="n">
-        <v>245214.8477036881</v>
+        <v>288039.4828907654</v>
       </c>
       <c r="AE13" t="n">
-        <v>335513.7727436053</v>
+        <v>394108.3278962877</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.418444887730067e-06</v>
+        <v>4.945712079118897e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.961588541666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>303492.8091695931</v>
+        <v>356495.1822163775</v>
       </c>
     </row>
     <row r="14">
@@ -22937,28 +22937,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>242.6143499060465</v>
+        <v>285.4389850931237</v>
       </c>
       <c r="AB14" t="n">
-        <v>331.955656931008</v>
+        <v>390.5502120836886</v>
       </c>
       <c r="AC14" t="n">
-        <v>300.274274936302</v>
+        <v>353.2766479830859</v>
       </c>
       <c r="AD14" t="n">
-        <v>242614.3499060465</v>
+        <v>285438.9850931237</v>
       </c>
       <c r="AE14" t="n">
-        <v>331955.656931008</v>
+        <v>390550.2120836886</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.436702694304954e-06</v>
+        <v>4.972126971703459e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.912760416666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>300274.274936302</v>
+        <v>353276.6479830859</v>
       </c>
     </row>
     <row r="15">
@@ -23043,28 +23043,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>241.2187398203468</v>
+        <v>284.0433750074241</v>
       </c>
       <c r="AB15" t="n">
-        <v>330.0461216417831</v>
+        <v>388.6406767944627</v>
       </c>
       <c r="AC15" t="n">
-        <v>298.5469830150305</v>
+        <v>351.5493560618141</v>
       </c>
       <c r="AD15" t="n">
-        <v>241218.7398203468</v>
+        <v>284043.3750074241</v>
       </c>
       <c r="AE15" t="n">
-        <v>330046.1216417831</v>
+        <v>388640.6767944627</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.446208047212498e-06</v>
+        <v>4.985879054956246e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.889973958333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>298546.9830150306</v>
+        <v>351549.3560618141</v>
       </c>
     </row>
     <row r="16">
@@ -23149,28 +23149,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>239.6320434323482</v>
+        <v>282.4566786194255</v>
       </c>
       <c r="AB16" t="n">
-        <v>327.8751336436203</v>
+        <v>386.4696887962987</v>
       </c>
       <c r="AC16" t="n">
-        <v>296.5831910644109</v>
+        <v>349.5855641111941</v>
       </c>
       <c r="AD16" t="n">
-        <v>239632.0434323482</v>
+        <v>282456.6786194255</v>
       </c>
       <c r="AE16" t="n">
-        <v>327875.1336436203</v>
+        <v>386469.6887962987</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.455525175309992e-06</v>
+        <v>4.999358819728782e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH16" t="n">
-        <v>296583.1910644108</v>
+        <v>349585.5641111941</v>
       </c>
     </row>
     <row r="17">
@@ -23255,28 +23255,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>238.1441171936074</v>
+        <v>280.9687523806846</v>
       </c>
       <c r="AB17" t="n">
-        <v>325.8392873211032</v>
+        <v>384.4338424737806</v>
       </c>
       <c r="AC17" t="n">
-        <v>294.7416430575859</v>
+        <v>347.7440161043689</v>
       </c>
       <c r="AD17" t="n">
-        <v>238144.1171936074</v>
+        <v>280968.7523806846</v>
       </c>
       <c r="AE17" t="n">
-        <v>325839.2873211032</v>
+        <v>384433.8424737806</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.463336504927083e-06</v>
+        <v>5.01066003665929e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.844401041666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>294741.6430575859</v>
+        <v>347744.0161043689</v>
       </c>
     </row>
     <row r="18">
@@ -23361,28 +23361,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>236.695986328121</v>
+        <v>279.5206215151982</v>
       </c>
       <c r="AB18" t="n">
-        <v>323.8578907839208</v>
+        <v>382.4524459365973</v>
       </c>
       <c r="AC18" t="n">
-        <v>292.9493482250041</v>
+        <v>345.9517212717868</v>
       </c>
       <c r="AD18" t="n">
-        <v>236695.986328121</v>
+        <v>279520.6215151981</v>
       </c>
       <c r="AE18" t="n">
-        <v>323857.8907839208</v>
+        <v>382452.4459365973</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.473124195049704e-06</v>
+        <v>5.024820597632457e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.821614583333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>292949.3482250041</v>
+        <v>345951.7212717868</v>
       </c>
     </row>
     <row r="19">
@@ -23467,28 +23467,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>234.9405519876746</v>
+        <v>277.7651871747518</v>
       </c>
       <c r="AB19" t="n">
-        <v>321.456028075026</v>
+        <v>380.0505832277011</v>
       </c>
       <c r="AC19" t="n">
-        <v>290.7767159220099</v>
+        <v>343.7790889687922</v>
       </c>
       <c r="AD19" t="n">
-        <v>234940.5519876746</v>
+        <v>277765.1871747518</v>
       </c>
       <c r="AE19" t="n">
-        <v>321456.028075026</v>
+        <v>380050.5832277011</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.483853009222576e-06</v>
+        <v>5.040342751006892e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.792317708333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>290776.71592201</v>
+        <v>343779.0889687922</v>
       </c>
     </row>
     <row r="20">
@@ -23573,28 +23573,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>232.8611372821151</v>
+        <v>275.6857724691923</v>
       </c>
       <c r="AB20" t="n">
-        <v>318.6108811375786</v>
+        <v>377.2054362902523</v>
       </c>
       <c r="AC20" t="n">
-        <v>288.2031058150828</v>
+        <v>341.2054788618647</v>
       </c>
       <c r="AD20" t="n">
-        <v>232861.1372821151</v>
+        <v>275685.7724691923</v>
       </c>
       <c r="AE20" t="n">
-        <v>318610.8811375786</v>
+        <v>377205.4362902523</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.494393598585397e-06</v>
+        <v>5.055592585901072e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.766276041666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>288203.1058150828</v>
+        <v>341205.4788618647</v>
       </c>
     </row>
     <row r="21">
@@ -23679,28 +23679,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>232.0820171607331</v>
+        <v>274.9066523478102</v>
       </c>
       <c r="AB21" t="n">
-        <v>317.5448546151503</v>
+        <v>376.1394097678234</v>
       </c>
       <c r="AC21" t="n">
-        <v>287.2388193677771</v>
+        <v>340.2411924145588</v>
       </c>
       <c r="AD21" t="n">
-        <v>232082.0171607331</v>
+        <v>274906.6523478102</v>
       </c>
       <c r="AE21" t="n">
-        <v>317544.8546151503</v>
+        <v>376139.4097678234</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.494111261370321e-06</v>
+        <v>5.055184108180692e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.766276041666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>287238.8193677771</v>
+        <v>340241.1924145588</v>
       </c>
     </row>
     <row r="22">
@@ -23785,28 +23785,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>230.6554172674593</v>
+        <v>273.4800524545363</v>
       </c>
       <c r="AB22" t="n">
-        <v>315.5929177040287</v>
+        <v>374.1874728567008</v>
       </c>
       <c r="AC22" t="n">
-        <v>285.4731725758916</v>
+        <v>338.4755456226731</v>
       </c>
       <c r="AD22" t="n">
-        <v>230655.4172674593</v>
+        <v>273480.0524545364</v>
       </c>
       <c r="AE22" t="n">
-        <v>315592.9177040287</v>
+        <v>374187.4728567008</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.504087176302992e-06</v>
+        <v>5.069616987634113e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>285473.1725758916</v>
+        <v>338475.5456226731</v>
       </c>
     </row>
     <row r="23">
@@ -23891,28 +23891,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>229.3915488532483</v>
+        <v>272.2161840403253</v>
       </c>
       <c r="AB23" t="n">
-        <v>313.8636371817668</v>
+        <v>372.458192334438</v>
       </c>
       <c r="AC23" t="n">
-        <v>283.9089321596134</v>
+        <v>336.9113052063946</v>
       </c>
       <c r="AD23" t="n">
-        <v>229391.5488532482</v>
+        <v>272216.1840403253</v>
       </c>
       <c r="AE23" t="n">
-        <v>313863.6371817667</v>
+        <v>372458.192334438</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.502487265417563e-06</v>
+        <v>5.06730228055196e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.746744791666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>283908.9321596134</v>
+        <v>336911.3052063946</v>
       </c>
     </row>
     <row r="24">
@@ -23997,28 +23997,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>227.6134846281743</v>
+        <v>270.4381198152514</v>
       </c>
       <c r="AB24" t="n">
-        <v>311.4308112663645</v>
+        <v>370.0253664190344</v>
       </c>
       <c r="AC24" t="n">
-        <v>281.7082917350837</v>
+        <v>334.7106647818646</v>
       </c>
       <c r="AD24" t="n">
-        <v>227613.4846281743</v>
+        <v>270438.1198152514</v>
       </c>
       <c r="AE24" t="n">
-        <v>311430.8112663645</v>
+        <v>370025.3664190344</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.513592529210536e-06</v>
+        <v>5.0833690708869e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8.720703125</v>
       </c>
       <c r="AH24" t="n">
-        <v>281708.2917350837</v>
+        <v>334710.6647818646</v>
       </c>
     </row>
     <row r="25">
@@ -24103,28 +24103,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>226.7809687880333</v>
+        <v>269.6056039751103</v>
       </c>
       <c r="AB25" t="n">
-        <v>310.2917263658774</v>
+        <v>368.8862815185468</v>
       </c>
       <c r="AC25" t="n">
-        <v>280.677919498783</v>
+        <v>333.6802925455637</v>
       </c>
       <c r="AD25" t="n">
-        <v>226780.9687880333</v>
+        <v>269605.6039751103</v>
       </c>
       <c r="AE25" t="n">
-        <v>310291.7263658774</v>
+        <v>368886.2815185468</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.513404304400486e-06</v>
+        <v>5.083096752406648e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.720703125</v>
       </c>
       <c r="AH25" t="n">
-        <v>280677.919498783</v>
+        <v>333680.2925455637</v>
       </c>
     </row>
     <row r="26">
@@ -24209,28 +24209,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>227.2125370777094</v>
+        <v>270.0371722647864</v>
       </c>
       <c r="AB26" t="n">
-        <v>310.882217139261</v>
+        <v>369.4767722919308</v>
       </c>
       <c r="AC26" t="n">
-        <v>281.2120546615141</v>
+        <v>334.2144277082949</v>
       </c>
       <c r="AD26" t="n">
-        <v>227212.5370777094</v>
+        <v>270037.1722647864</v>
       </c>
       <c r="AE26" t="n">
-        <v>310882.217139261</v>
+        <v>369476.7722919308</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.510486819844705e-06</v>
+        <v>5.078875815962722e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>8.727213541666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>281212.0546615141</v>
+        <v>334214.4277082949</v>
       </c>
     </row>
   </sheetData>
@@ -24506,28 +24506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.9699941995011</v>
+        <v>440.4700666313014</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.3646856243682</v>
+        <v>602.6705773328338</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.2246173823451</v>
+        <v>545.152543285655</v>
       </c>
       <c r="AD2" t="n">
-        <v>383969.9941995011</v>
+        <v>440470.0666313014</v>
       </c>
       <c r="AE2" t="n">
-        <v>525364.6856243683</v>
+        <v>602670.5773328338</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477062636664105e-06</v>
+        <v>3.71976684947899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.37890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>475224.6173823451</v>
+        <v>545152.5432856551</v>
       </c>
     </row>
     <row r="3">
@@ -24612,28 +24612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.6826280035503</v>
+        <v>302.0764228235244</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.0457162572276</v>
+        <v>413.3142883783729</v>
       </c>
       <c r="AC3" t="n">
-        <v>323.8743356179559</v>
+        <v>373.8681527857872</v>
       </c>
       <c r="AD3" t="n">
-        <v>261682.6280035503</v>
+        <v>302076.4228235244</v>
       </c>
       <c r="AE3" t="n">
-        <v>358045.7162572276</v>
+        <v>413314.2883783729</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.193536382983531e-06</v>
+        <v>4.795684450686752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.37760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>323874.3356179559</v>
+        <v>373868.1527857872</v>
       </c>
     </row>
     <row r="4">
@@ -24718,28 +24718,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.075015867528</v>
+        <v>270.5540620335256</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.7987869031406</v>
+        <v>370.1840036770869</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.7548325040705</v>
+        <v>334.8541619226573</v>
       </c>
       <c r="AD4" t="n">
-        <v>230075.015867528</v>
+        <v>270554.0620335256</v>
       </c>
       <c r="AE4" t="n">
-        <v>314798.7869031406</v>
+        <v>370184.0036770869</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.456525112092963e-06</v>
+        <v>5.190610578854956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.58984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>284754.8325040705</v>
+        <v>334854.1619226573</v>
       </c>
     </row>
     <row r="5">
@@ -24824,28 +24824,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.7257196277492</v>
+        <v>260.0341735931544</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.6384232091559</v>
+        <v>355.7902282082479</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.9459140468398</v>
+        <v>321.8341081827734</v>
       </c>
       <c r="AD5" t="n">
-        <v>219725.7196277492</v>
+        <v>260034.1735931544</v>
       </c>
       <c r="AE5" t="n">
-        <v>300638.4232091559</v>
+        <v>355790.2282082479</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.582877807727809e-06</v>
+        <v>5.380352477831627e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.251302083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>271945.9140468399</v>
+        <v>321834.1081827735</v>
       </c>
     </row>
     <row r="6">
@@ -24930,28 +24930,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>213.2174439286925</v>
+        <v>245.6007703700389</v>
       </c>
       <c r="AB6" t="n">
-        <v>291.7335132728514</v>
+        <v>336.0418091614127</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.8908762167339</v>
+        <v>303.9704505327888</v>
       </c>
       <c r="AD6" t="n">
-        <v>213217.4439286925</v>
+        <v>245600.7703700389</v>
       </c>
       <c r="AE6" t="n">
-        <v>291733.5132728514</v>
+        <v>336041.8091614128</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.659850118686667e-06</v>
+        <v>5.495940612905248e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.055989583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>263890.8762167339</v>
+        <v>303970.4505327888</v>
       </c>
     </row>
     <row r="7">
@@ -25036,28 +25036,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>200.493277898811</v>
+        <v>240.8869832102335</v>
       </c>
       <c r="AB7" t="n">
-        <v>274.3237479601891</v>
+        <v>329.5921976117576</v>
       </c>
       <c r="AC7" t="n">
-        <v>248.1426744707475</v>
+        <v>298.1363808573441</v>
       </c>
       <c r="AD7" t="n">
-        <v>200493.277898811</v>
+        <v>240886.9832102335</v>
       </c>
       <c r="AE7" t="n">
-        <v>274323.7479601891</v>
+        <v>329592.1976117576</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.706990568387661e-06</v>
+        <v>5.566730700919911e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.942057291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>248142.6744707475</v>
+        <v>298136.3808573441</v>
       </c>
     </row>
     <row r="8">
@@ -25142,28 +25142,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>196.037604188895</v>
+        <v>236.4313095003175</v>
       </c>
       <c r="AB8" t="n">
-        <v>268.2272986198342</v>
+        <v>323.4957482714028</v>
       </c>
       <c r="AC8" t="n">
-        <v>242.6280616990138</v>
+        <v>292.6217680856104</v>
       </c>
       <c r="AD8" t="n">
-        <v>196037.604188895</v>
+        <v>236431.3095003175</v>
       </c>
       <c r="AE8" t="n">
-        <v>268227.2986198342</v>
+        <v>323495.7482714028</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.753316496279566e-06</v>
+        <v>5.636297634066073e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.831380208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>242628.0616990137</v>
+        <v>292621.7680856104</v>
       </c>
     </row>
     <row r="9">
@@ -25248,28 +25248,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>193.0170891813834</v>
+        <v>233.410794492806</v>
       </c>
       <c r="AB9" t="n">
-        <v>264.0944967308416</v>
+        <v>319.3629463824101</v>
       </c>
       <c r="AC9" t="n">
-        <v>238.8896886218814</v>
+        <v>288.883395008478</v>
       </c>
       <c r="AD9" t="n">
-        <v>193017.0891813834</v>
+        <v>233410.794492806</v>
       </c>
       <c r="AE9" t="n">
-        <v>264094.4967308416</v>
+        <v>319362.9463824101</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.777548520099948e-06</v>
+        <v>5.672686491404065e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.772786458333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>238889.6886218814</v>
+        <v>288883.395008478</v>
       </c>
     </row>
     <row r="10">
@@ -25354,28 +25354,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>189.684337606254</v>
+        <v>230.0780429176765</v>
       </c>
       <c r="AB10" t="n">
-        <v>259.5344789951292</v>
+        <v>314.8029286466977</v>
       </c>
       <c r="AC10" t="n">
-        <v>234.7648725788388</v>
+        <v>284.7585789654355</v>
       </c>
       <c r="AD10" t="n">
-        <v>189684.337606254</v>
+        <v>230078.0429176765</v>
       </c>
       <c r="AE10" t="n">
-        <v>259534.4789951292</v>
+        <v>314802.9286466977</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.803104141860098e-06</v>
+        <v>5.711062975403375e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.714192708333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>234764.8725788388</v>
+        <v>284758.5789654355</v>
       </c>
     </row>
     <row r="11">
@@ -25460,28 +25460,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>186.8430721686717</v>
+        <v>227.2367774800942</v>
       </c>
       <c r="AB11" t="n">
-        <v>255.6469342756466</v>
+        <v>310.9153839272151</v>
       </c>
       <c r="AC11" t="n">
-        <v>231.2483496711791</v>
+        <v>281.2420560577758</v>
       </c>
       <c r="AD11" t="n">
-        <v>186843.0721686717</v>
+        <v>227236.7774800942</v>
       </c>
       <c r="AE11" t="n">
-        <v>255646.9342756466</v>
+        <v>310915.3839272151</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.821023621660043e-06</v>
+        <v>5.737972382510461e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.675130208333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>231248.3496711791</v>
+        <v>281242.0560577757</v>
       </c>
     </row>
     <row r="12">
@@ -25566,28 +25566,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>186.5186709186904</v>
+        <v>226.912376230113</v>
       </c>
       <c r="AB12" t="n">
-        <v>255.2030741738493</v>
+        <v>310.4715238254178</v>
       </c>
       <c r="AC12" t="n">
-        <v>230.8468509545357</v>
+        <v>280.8405573411323</v>
       </c>
       <c r="AD12" t="n">
-        <v>186518.6709186904</v>
+        <v>226912.376230113</v>
       </c>
       <c r="AE12" t="n">
-        <v>255203.0741738493</v>
+        <v>310471.5238254178</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.818885501911186e-06</v>
+        <v>5.734761600980638e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>230846.8509545357</v>
+        <v>280840.5573411323</v>
       </c>
     </row>
   </sheetData>
@@ -25863,28 +25863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.6692567860968</v>
+        <v>341.5059190215164</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.2335240897706</v>
+        <v>467.2634645830697</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.7993070538507</v>
+        <v>422.6684953316521</v>
       </c>
       <c r="AD2" t="n">
-        <v>286669.2567860967</v>
+        <v>341505.9190215165</v>
       </c>
       <c r="AE2" t="n">
-        <v>392233.5240897706</v>
+        <v>467263.4645830697</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.898345240412669e-06</v>
+        <v>4.445327589619758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.91080729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>354799.3070538507</v>
+        <v>422668.4953316521</v>
       </c>
     </row>
     <row r="3">
@@ -25969,28 +25969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.9055461607897</v>
+        <v>252.1965061211913</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.3067609868486</v>
+        <v>345.0663857994597</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.5048525699564</v>
+        <v>312.1337342425764</v>
       </c>
       <c r="AD3" t="n">
-        <v>212905.5461607897</v>
+        <v>252196.5061211913</v>
       </c>
       <c r="AE3" t="n">
-        <v>291306.7609868486</v>
+        <v>345066.3857994598</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.521010086228783e-06</v>
+        <v>5.400337772533166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>263504.8525699564</v>
+        <v>312133.7342425764</v>
       </c>
     </row>
     <row r="4">
@@ -26075,28 +26075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.1467777468359</v>
+        <v>228.5796352237082</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.744918815092</v>
+        <v>312.7527411347293</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.0008423528299</v>
+        <v>282.9040584721524</v>
       </c>
       <c r="AD4" t="n">
-        <v>197146.7777468358</v>
+        <v>228579.6352237082</v>
       </c>
       <c r="AE4" t="n">
-        <v>269744.918815092</v>
+        <v>312752.7411347293</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.742458595522609e-06</v>
+        <v>5.739983703707276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.225260416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>244000.8423528299</v>
+        <v>282904.0584721525</v>
       </c>
     </row>
     <row r="5">
@@ -26181,28 +26181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>181.3067483039545</v>
+        <v>220.5123674097845</v>
       </c>
       <c r="AB5" t="n">
-        <v>248.0718917185733</v>
+        <v>301.7147494089869</v>
       </c>
       <c r="AC5" t="n">
-        <v>224.3962585441115</v>
+        <v>272.9195171847927</v>
       </c>
       <c r="AD5" t="n">
-        <v>181306.7483039545</v>
+        <v>220512.3674097845</v>
       </c>
       <c r="AE5" t="n">
-        <v>248071.8917185733</v>
+        <v>301714.7494089869</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.848410252986465e-06</v>
+        <v>5.902486713881094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>224396.2585441115</v>
+        <v>272919.5171847927</v>
       </c>
     </row>
     <row r="6">
@@ -26287,28 +26287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.5946764886974</v>
+        <v>214.8002955945274</v>
       </c>
       <c r="AB6" t="n">
-        <v>240.2563830621192</v>
+        <v>293.8992407525326</v>
       </c>
       <c r="AC6" t="n">
-        <v>217.3266510646915</v>
+        <v>265.8499097053727</v>
       </c>
       <c r="AD6" t="n">
-        <v>175594.6764886974</v>
+        <v>214800.2955945274</v>
       </c>
       <c r="AE6" t="n">
-        <v>240256.3830621192</v>
+        <v>293899.2407525327</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.915332671264435e-06</v>
+        <v>6.005128755342235e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.818359375</v>
       </c>
       <c r="AH6" t="n">
-        <v>217326.6510646915</v>
+        <v>265849.9097053727</v>
       </c>
     </row>
     <row r="7">
@@ -26393,28 +26393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.633708240799</v>
+        <v>209.839327346629</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.4685674428754</v>
+        <v>287.1114251332889</v>
       </c>
       <c r="AC7" t="n">
-        <v>211.1866550413872</v>
+        <v>259.7099136820684</v>
       </c>
       <c r="AD7" t="n">
-        <v>170633.708240799</v>
+        <v>209839.327346629</v>
       </c>
       <c r="AE7" t="n">
-        <v>233468.5674428754</v>
+        <v>287111.4251332889</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.963588931670897e-06</v>
+        <v>6.079141637853835e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.7109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>211186.6550413872</v>
+        <v>259709.9136820684</v>
       </c>
     </row>
     <row r="8">
@@ -26499,28 +26499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>170.141204380714</v>
+        <v>209.346823486544</v>
       </c>
       <c r="AB8" t="n">
-        <v>232.7947019337707</v>
+        <v>286.4375596241841</v>
       </c>
       <c r="AC8" t="n">
-        <v>210.577102310695</v>
+        <v>259.1003609513761</v>
       </c>
       <c r="AD8" t="n">
-        <v>170141.204380714</v>
+        <v>209346.823486544</v>
       </c>
       <c r="AE8" t="n">
-        <v>232794.7019337706</v>
+        <v>286437.5596241842</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.967194893986984e-06</v>
+        <v>6.084672270832724e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.701171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>210577.102310695</v>
+        <v>259100.3609513761</v>
       </c>
     </row>
   </sheetData>
@@ -49777,28 +49777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.4627396815387</v>
+        <v>276.8041296405498</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.2752406657228</v>
+        <v>378.7356219105399</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.1359896268595</v>
+        <v>342.5896257141811</v>
       </c>
       <c r="AD2" t="n">
-        <v>238462.7396815387</v>
+        <v>276804.1296405498</v>
       </c>
       <c r="AE2" t="n">
-        <v>326275.2406657228</v>
+        <v>378735.6219105399</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.242423227475803e-06</v>
+        <v>5.066222334947509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>295135.9896268595</v>
+        <v>342589.6257141811</v>
       </c>
     </row>
     <row r="3">
@@ -49883,28 +49883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.7308241511396</v>
+        <v>222.901532401004</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.7568633522548</v>
+        <v>304.9837103524922</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.6341030604749</v>
+        <v>275.8764930838664</v>
       </c>
       <c r="AD3" t="n">
-        <v>184730.8241511396</v>
+        <v>222901.532401004</v>
       </c>
       <c r="AE3" t="n">
-        <v>252756.8633522548</v>
+        <v>304983.7103524922</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.78823954867402e-06</v>
+        <v>5.919049570393266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>228634.1030604749</v>
+        <v>275876.4930838664</v>
       </c>
     </row>
     <row r="4">
@@ -49989,28 +49989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.9824881247507</v>
+        <v>203.2384477206357</v>
       </c>
       <c r="AB4" t="n">
-        <v>225.7363187658663</v>
+        <v>278.0798104187529</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.1923613258302</v>
+        <v>251.5402635999339</v>
       </c>
       <c r="AD4" t="n">
-        <v>164982.4881247508</v>
+        <v>203238.4477206357</v>
       </c>
       <c r="AE4" t="n">
-        <v>225736.3187658663</v>
+        <v>278079.8104187528</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.977053596670429e-06</v>
+        <v>6.214067795961535e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.981119791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>204192.3613258302</v>
+        <v>251540.2635999339</v>
       </c>
     </row>
     <row r="5">
@@ -50095,28 +50095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.9071510029704</v>
+        <v>196.1631105988553</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.0555303740073</v>
+        <v>268.3990220268939</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.4354937910153</v>
+        <v>242.783396065119</v>
       </c>
       <c r="AD5" t="n">
-        <v>157907.1510029704</v>
+        <v>196163.1105988553</v>
       </c>
       <c r="AE5" t="n">
-        <v>216055.5303740073</v>
+        <v>268399.0220268939</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.069979511053321e-06</v>
+        <v>6.359262704187176e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>195435.4937910153</v>
+        <v>242783.396065119</v>
       </c>
     </row>
     <row r="6">
@@ -50201,28 +50201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.4748297165376</v>
+        <v>195.7307893124226</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.4640093172412</v>
+        <v>267.8075009701279</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.9004266737018</v>
+        <v>242.2483289478055</v>
       </c>
       <c r="AD6" t="n">
-        <v>157474.8297165376</v>
+        <v>195730.7893124226</v>
       </c>
       <c r="AE6" t="n">
-        <v>215464.0093172413</v>
+        <v>267807.5009701279</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.082267235269241e-06</v>
+        <v>6.378462030894698e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>194900.4266737018</v>
+        <v>242248.3289478055</v>
       </c>
     </row>
   </sheetData>
@@ -50498,28 +50498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.3588412267045</v>
+        <v>185.8176220225274</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.359355813315</v>
+        <v>254.2438681460251</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.8555857147076</v>
+        <v>229.9791902037526</v>
       </c>
       <c r="AD2" t="n">
-        <v>149358.8412267045</v>
+        <v>185817.6220225274</v>
       </c>
       <c r="AE2" t="n">
-        <v>204359.355813315</v>
+        <v>254243.8681460251</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.997992439955044e-06</v>
+        <v>6.515432859691478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.586588541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>184855.5857147076</v>
+        <v>229979.1902037525</v>
       </c>
     </row>
     <row r="3">
@@ -50604,28 +50604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.9479477728493</v>
+        <v>169.1150619180588</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.4829562104395</v>
+        <v>231.390688546156</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.2080916177862</v>
+        <v>209.3070859902487</v>
       </c>
       <c r="AD3" t="n">
-        <v>139947.9477728494</v>
+        <v>169115.0619180588</v>
       </c>
       <c r="AE3" t="n">
-        <v>191482.9562104395</v>
+        <v>231390.688546156</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.220783488977044e-06</v>
+        <v>6.878510114949968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.08203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>173208.0916177862</v>
+        <v>209307.0859902487</v>
       </c>
     </row>
   </sheetData>
@@ -50901,28 +50901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.0670956828938</v>
+        <v>556.1475546659932</v>
       </c>
       <c r="AB2" t="n">
-        <v>681.4773734828093</v>
+        <v>760.945619792496</v>
       </c>
       <c r="AC2" t="n">
-        <v>616.43812941711</v>
+        <v>688.3220378333845</v>
       </c>
       <c r="AD2" t="n">
-        <v>498067.0956828938</v>
+        <v>556147.5546659932</v>
       </c>
       <c r="AE2" t="n">
-        <v>681477.3734828093</v>
+        <v>760945.619792496</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.132412953022077e-06</v>
+        <v>3.150385964634525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.03255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>616438.12941711</v>
+        <v>688322.0378333845</v>
       </c>
     </row>
     <row r="3">
@@ -51007,28 +51007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.2650261031479</v>
+        <v>351.9628590839034</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.5723437061431</v>
+        <v>481.5711113040641</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.1015796752581</v>
+        <v>435.6106403305031</v>
       </c>
       <c r="AD3" t="n">
-        <v>302265.0261031479</v>
+        <v>351962.8590839034</v>
       </c>
       <c r="AE3" t="n">
-        <v>413572.3437061431</v>
+        <v>481571.1113040641</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.926134593428374e-06</v>
+        <v>4.323015080500151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.95377604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>374101.5796752581</v>
+        <v>435610.6403305032</v>
       </c>
     </row>
     <row r="4">
@@ -51113,28 +51113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>262.6756308323351</v>
+        <v>312.2881229585189</v>
       </c>
       <c r="AB4" t="n">
-        <v>359.4043865357638</v>
+        <v>427.286387011487</v>
       </c>
       <c r="AC4" t="n">
-        <v>325.1033363120143</v>
+        <v>386.5067739353206</v>
       </c>
       <c r="AD4" t="n">
-        <v>262675.630832335</v>
+        <v>312288.1229585189</v>
       </c>
       <c r="AE4" t="n">
-        <v>359404.3865357637</v>
+        <v>427286.387011487</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.208860999086746e-06</v>
+        <v>4.740709645221021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.990234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>325103.3363120143</v>
+        <v>386506.7739353206</v>
       </c>
     </row>
     <row r="5">
@@ -51219,28 +51219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.8340055828819</v>
+        <v>290.319983778991</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.4656642198928</v>
+        <v>397.2286098201566</v>
       </c>
       <c r="AC5" t="n">
-        <v>307.9720990734086</v>
+        <v>359.3176688127755</v>
       </c>
       <c r="AD5" t="n">
-        <v>248834.0055828819</v>
+        <v>290319.983778991</v>
       </c>
       <c r="AE5" t="n">
-        <v>340465.6642198928</v>
+        <v>397228.6098201566</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.354310982074352e-06</v>
+        <v>4.955594658140814e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.557291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>307972.0990734086</v>
+        <v>359317.6688127755</v>
       </c>
     </row>
     <row r="6">
@@ -51325,28 +51325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.7834821706705</v>
+        <v>281.0988681661872</v>
       </c>
       <c r="AB6" t="n">
-        <v>328.0823388063983</v>
+        <v>384.6118726318087</v>
       </c>
       <c r="AC6" t="n">
-        <v>296.7706208572677</v>
+        <v>347.9050553139816</v>
       </c>
       <c r="AD6" t="n">
-        <v>239783.4821706705</v>
+        <v>281098.8681661873</v>
       </c>
       <c r="AE6" t="n">
-        <v>328082.3388063983</v>
+        <v>384611.8726318087</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.452295229246096e-06</v>
+        <v>5.100354704082041e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.287109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>296770.6208572676</v>
+        <v>347905.0553139816</v>
       </c>
     </row>
     <row r="7">
@@ -51431,28 +51431,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>234.2299348539428</v>
+        <v>267.4188069193816</v>
       </c>
       <c r="AB7" t="n">
-        <v>320.4837303624393</v>
+        <v>365.8942093122214</v>
       </c>
       <c r="AC7" t="n">
-        <v>289.8972129384837</v>
+        <v>330.9737795112103</v>
       </c>
       <c r="AD7" t="n">
-        <v>234229.9348539428</v>
+        <v>267418.8069193816</v>
       </c>
       <c r="AE7" t="n">
-        <v>320483.7303624393</v>
+        <v>365894.2093122214</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.51010101124591e-06</v>
+        <v>5.185755856813199e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.134114583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>289897.2129384837</v>
+        <v>330973.7795112103</v>
       </c>
     </row>
     <row r="8">
@@ -51537,28 +51537,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>230.4752553157</v>
+        <v>263.6641273811387</v>
       </c>
       <c r="AB8" t="n">
-        <v>315.3464121734474</v>
+        <v>360.7568911232269</v>
       </c>
       <c r="AC8" t="n">
-        <v>285.2501931871763</v>
+        <v>326.326759759902</v>
       </c>
       <c r="AD8" t="n">
-        <v>230475.2553157</v>
+        <v>263664.1273811387</v>
       </c>
       <c r="AE8" t="n">
-        <v>315346.4121734474</v>
+        <v>360756.8911232268</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.546931270986848e-06</v>
+        <v>5.240168175589097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.036458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>285250.1931871763</v>
+        <v>326326.759759902</v>
       </c>
     </row>
     <row r="9">
@@ -51643,28 +51643,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>218.0542516544216</v>
+        <v>259.4548889959586</v>
       </c>
       <c r="AB9" t="n">
-        <v>298.3514469880874</v>
+        <v>354.9976254661319</v>
       </c>
       <c r="AC9" t="n">
-        <v>269.8772036265182</v>
+        <v>321.1171503339401</v>
       </c>
       <c r="AD9" t="n">
-        <v>218054.2516544216</v>
+        <v>259454.8889959586</v>
       </c>
       <c r="AE9" t="n">
-        <v>298351.4469880874</v>
+        <v>354997.6254661318</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.585928016594899e-06</v>
+        <v>5.297781218998873e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.938802083333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>269877.2036265182</v>
+        <v>321117.1503339401</v>
       </c>
     </row>
     <row r="10">
@@ -51749,28 +51749,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>215.0300145526652</v>
+        <v>256.430651894199</v>
       </c>
       <c r="AB10" t="n">
-        <v>294.2135523655419</v>
+        <v>350.8597308434138</v>
       </c>
       <c r="AC10" t="n">
-        <v>266.1342238591755</v>
+        <v>317.3741705665483</v>
       </c>
       <c r="AD10" t="n">
-        <v>215030.0145526652</v>
+        <v>256430.651894199</v>
       </c>
       <c r="AE10" t="n">
-        <v>294213.5523655419</v>
+        <v>350859.7308434139</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.61261518341253e-06</v>
+        <v>5.337208326988895e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.873697916666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>266134.2238591755</v>
+        <v>317374.1705665483</v>
       </c>
     </row>
     <row r="11">
@@ -51855,28 +51855,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>211.9393883517698</v>
+        <v>253.3400256933035</v>
       </c>
       <c r="AB11" t="n">
-        <v>289.9848212486738</v>
+        <v>346.6309997265459</v>
       </c>
       <c r="AC11" t="n">
-        <v>262.3090769050386</v>
+        <v>313.5490236124114</v>
       </c>
       <c r="AD11" t="n">
-        <v>211939.3883517698</v>
+        <v>253340.0256933036</v>
       </c>
       <c r="AE11" t="n">
-        <v>289984.8212486738</v>
+        <v>346630.9997265459</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.638219107296604e-06</v>
+        <v>5.375035072661979e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.811848958333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>262309.0769050386</v>
+        <v>313549.0236124113</v>
       </c>
     </row>
     <row r="12">
@@ -51961,28 +51961,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>210.0061087901008</v>
+        <v>251.4067461316346</v>
       </c>
       <c r="AB12" t="n">
-        <v>287.3396228621249</v>
+        <v>343.985801339997</v>
       </c>
       <c r="AC12" t="n">
-        <v>259.9163325399419</v>
+        <v>311.1562792473146</v>
       </c>
       <c r="AD12" t="n">
-        <v>210006.1087901008</v>
+        <v>251406.7461316346</v>
       </c>
       <c r="AE12" t="n">
-        <v>287339.6228621249</v>
+        <v>343985.801339997</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.645112471419239e-06</v>
+        <v>5.385219196497041e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.795572916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>259916.3325399419</v>
+        <v>311156.2792473146</v>
       </c>
     </row>
     <row r="13">
@@ -52067,28 +52067,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>207.4265571585042</v>
+        <v>248.8271945000379</v>
       </c>
       <c r="AB13" t="n">
-        <v>283.8101665179899</v>
+        <v>340.456344995862</v>
       </c>
       <c r="AC13" t="n">
-        <v>256.7237225556668</v>
+        <v>307.9636692630396</v>
       </c>
       <c r="AD13" t="n">
-        <v>207426.5571585041</v>
+        <v>248827.1945000379</v>
       </c>
       <c r="AE13" t="n">
-        <v>283810.1665179899</v>
+        <v>340456.344995862</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.666284946938762e-06</v>
+        <v>5.416499005419015e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>256723.7225556668</v>
+        <v>307963.6692630396</v>
       </c>
     </row>
     <row r="14">
@@ -52173,28 +52173,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>204.3347886431349</v>
+        <v>245.7354259846687</v>
       </c>
       <c r="AB14" t="n">
-        <v>279.5798724360635</v>
+        <v>336.2260509139355</v>
       </c>
       <c r="AC14" t="n">
-        <v>252.8971618036631</v>
+        <v>304.1371085110359</v>
       </c>
       <c r="AD14" t="n">
-        <v>204334.7886431349</v>
+        <v>245735.4259846687</v>
       </c>
       <c r="AE14" t="n">
-        <v>279579.8724360635</v>
+        <v>336226.0509139355</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.686078749633758e-06</v>
+        <v>5.445741989573977e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>252897.1618036631</v>
+        <v>304137.1085110359</v>
       </c>
     </row>
     <row r="15">
@@ -52279,28 +52279,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>202.4966183646204</v>
+        <v>243.8972557061542</v>
       </c>
       <c r="AB15" t="n">
-        <v>277.0648067666519</v>
+        <v>333.7109852445239</v>
       </c>
       <c r="AC15" t="n">
-        <v>250.6221304718225</v>
+        <v>301.8620771791953</v>
       </c>
       <c r="AD15" t="n">
-        <v>202496.6183646204</v>
+        <v>243897.2557061542</v>
       </c>
       <c r="AE15" t="n">
-        <v>277064.8067666519</v>
+        <v>333710.9852445239</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.694449263211243e-06</v>
+        <v>5.458108425659408e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>250622.1304718225</v>
+        <v>301862.0771791953</v>
       </c>
     </row>
     <row r="16">
@@ -52385,28 +52385,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>201.7019403262406</v>
+        <v>243.1025776677743</v>
       </c>
       <c r="AB16" t="n">
-        <v>275.9774932158204</v>
+        <v>332.6236716936924</v>
       </c>
       <c r="AC16" t="n">
-        <v>249.6385886002278</v>
+        <v>300.8785353076006</v>
       </c>
       <c r="AD16" t="n">
-        <v>201701.9403262406</v>
+        <v>243102.5776677743</v>
       </c>
       <c r="AE16" t="n">
-        <v>275977.4932158204</v>
+        <v>332623.6716936924</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.691298011040896e-06</v>
+        <v>5.453452826191952e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>249638.5886002278</v>
+        <v>300878.5353076006</v>
       </c>
     </row>
     <row r="17">
@@ -52491,28 +52491,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>202.2067672456408</v>
+        <v>243.6074045871746</v>
       </c>
       <c r="AB17" t="n">
-        <v>276.6682196783353</v>
+        <v>333.3143981562073</v>
       </c>
       <c r="AC17" t="n">
-        <v>250.2633930986013</v>
+        <v>301.5033398059741</v>
       </c>
       <c r="AD17" t="n">
-        <v>202206.7672456408</v>
+        <v>243607.4045871746</v>
       </c>
       <c r="AE17" t="n">
-        <v>276668.2196783353</v>
+        <v>333314.3981562073</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.689525431695075e-06</v>
+        <v>5.450834051491507e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.688151041666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>250263.3930986013</v>
+        <v>301503.339805974</v>
       </c>
     </row>
   </sheetData>
@@ -52788,28 +52788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.9642621938709</v>
+        <v>764.7251077602308</v>
       </c>
       <c r="AB2" t="n">
-        <v>941.3030543748481</v>
+        <v>1046.330629728244</v>
       </c>
       <c r="AC2" t="n">
-        <v>851.4664119924462</v>
+        <v>946.4703029612422</v>
       </c>
       <c r="AD2" t="n">
-        <v>687964.262193871</v>
+        <v>764725.1077602308</v>
       </c>
       <c r="AE2" t="n">
-        <v>941303.0543748481</v>
+        <v>1046330.629728244</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.74407915044694e-06</v>
+        <v>2.532697703083272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.71158854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>851466.4119924462</v>
+        <v>946470.3029612422</v>
       </c>
     </row>
     <row r="3">
@@ -52894,28 +52894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>370.5537705224351</v>
+        <v>421.7276675666751</v>
       </c>
       <c r="AB3" t="n">
-        <v>507.0080165073911</v>
+        <v>577.0264000763218</v>
       </c>
       <c r="AC3" t="n">
-        <v>458.6198830021453</v>
+        <v>521.9558103146759</v>
       </c>
       <c r="AD3" t="n">
-        <v>370553.7705224351</v>
+        <v>421727.6675666751</v>
       </c>
       <c r="AE3" t="n">
-        <v>507008.0165073911</v>
+        <v>577026.4000763218</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.610567355612128e-06</v>
+        <v>3.790985027031982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.83268229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>458619.8830021453</v>
+        <v>521955.8103146759</v>
       </c>
     </row>
     <row r="4">
@@ -53000,28 +53000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>313.7954620506511</v>
+        <v>356.5257171087559</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.3487948564497</v>
+        <v>487.8142149527563</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.3723484701675</v>
+        <v>441.2579109292153</v>
       </c>
       <c r="AD4" t="n">
-        <v>313795.4620506511</v>
+        <v>356525.717108756</v>
       </c>
       <c r="AE4" t="n">
-        <v>429348.7948564496</v>
+        <v>487814.2149527564</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.939284379234099e-06</v>
+        <v>4.268337703645533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.51106770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>388372.3484701675</v>
+        <v>441257.9109292153</v>
       </c>
     </row>
     <row r="5">
@@ -53106,28 +53106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.4043671913416</v>
+        <v>336.4075825264381</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.5028463432362</v>
+        <v>460.2876956677716</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.233802762424</v>
+        <v>416.358484011077</v>
       </c>
       <c r="AD5" t="n">
-        <v>285404.3671913416</v>
+        <v>336407.5825264382</v>
       </c>
       <c r="AE5" t="n">
-        <v>390502.8463432362</v>
+        <v>460287.6956677716</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.108197861349314e-06</v>
+        <v>4.51362862869522e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.938151041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>353233.802762424</v>
+        <v>416358.484011077</v>
       </c>
     </row>
     <row r="6">
@@ -53212,28 +53212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>274.829867494828</v>
+        <v>317.4747816983612</v>
       </c>
       <c r="AB6" t="n">
-        <v>376.0343493444647</v>
+        <v>434.3830023185736</v>
       </c>
       <c r="AC6" t="n">
-        <v>340.1461588105521</v>
+        <v>392.9260982376609</v>
       </c>
       <c r="AD6" t="n">
-        <v>274829.867494828</v>
+        <v>317474.7816983612</v>
       </c>
       <c r="AE6" t="n">
-        <v>376034.3493444647</v>
+        <v>434383.0023185736</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.206888884607643e-06</v>
+        <v>4.656944674791668e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.632161458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>340146.1588105521</v>
+        <v>392926.0982376609</v>
       </c>
     </row>
     <row r="7">
@@ -53318,28 +53318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>267.1395669127161</v>
+        <v>309.6138889156572</v>
       </c>
       <c r="AB7" t="n">
-        <v>365.5121408159021</v>
+        <v>423.6273820151641</v>
       </c>
       <c r="AC7" t="n">
-        <v>330.6281750959432</v>
+        <v>383.1969792404009</v>
       </c>
       <c r="AD7" t="n">
-        <v>267139.5669127161</v>
+        <v>309613.8889156572</v>
       </c>
       <c r="AE7" t="n">
-        <v>365512.1408159021</v>
+        <v>423627.3820151641</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.280527571192703e-06</v>
+        <v>4.763880493802093e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.417317708333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>330628.1750959432</v>
+        <v>383196.9792404009</v>
       </c>
     </row>
     <row r="8">
@@ -53424,28 +53424,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>261.8784329221958</v>
+        <v>304.3527549251368</v>
       </c>
       <c r="AB8" t="n">
-        <v>358.3136251852216</v>
+        <v>416.4288663844836</v>
       </c>
       <c r="AC8" t="n">
-        <v>324.1166756938747</v>
+        <v>376.6854798383325</v>
       </c>
       <c r="AD8" t="n">
-        <v>261878.4329221958</v>
+        <v>304352.7549251367</v>
       </c>
       <c r="AE8" t="n">
-        <v>358313.6251852216</v>
+        <v>416428.8663844836</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.330537349324568e-06</v>
+        <v>4.836503144083659e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.274088541666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>324116.6756938747</v>
+        <v>376685.4798383325</v>
       </c>
     </row>
     <row r="9">
@@ -53530,28 +53530,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>258.1246526419827</v>
+        <v>292.2406735133603</v>
       </c>
       <c r="AB9" t="n">
-        <v>353.1775374007359</v>
+        <v>399.8565822495714</v>
       </c>
       <c r="AC9" t="n">
-        <v>319.4707689189958</v>
+        <v>361.6948312419094</v>
       </c>
       <c r="AD9" t="n">
-        <v>258124.6526419827</v>
+        <v>292240.6735133603</v>
       </c>
       <c r="AE9" t="n">
-        <v>353177.5374007359</v>
+        <v>399856.5822495715</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.364130255318268e-06</v>
+        <v>4.885285721312642e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.182942708333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>319470.7689189958</v>
+        <v>361694.8312419094</v>
       </c>
     </row>
     <row r="10">
@@ -53636,28 +53636,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>254.3543796686326</v>
+        <v>288.4704005400134</v>
       </c>
       <c r="AB10" t="n">
-        <v>348.0188835857295</v>
+        <v>394.6979284347339</v>
       </c>
       <c r="AC10" t="n">
-        <v>314.8044497839822</v>
+        <v>357.0285121069439</v>
       </c>
       <c r="AD10" t="n">
-        <v>254354.3796686326</v>
+        <v>288470.4005400134</v>
       </c>
       <c r="AE10" t="n">
-        <v>348018.8835857295</v>
+        <v>394697.9284347339</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.401234284254812e-06</v>
+        <v>4.939167042489287e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.08203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>314804.4497839822</v>
+        <v>357028.5121069439</v>
       </c>
     </row>
     <row r="11">
@@ -53742,28 +53742,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>251.0175641329267</v>
+        <v>285.1335850043075</v>
       </c>
       <c r="AB11" t="n">
-        <v>343.4533053598671</v>
+        <v>390.1323502088691</v>
       </c>
       <c r="AC11" t="n">
-        <v>310.6746039361653</v>
+        <v>352.8986662591264</v>
       </c>
       <c r="AD11" t="n">
-        <v>251017.5641329267</v>
+        <v>285133.5850043074</v>
       </c>
       <c r="AE11" t="n">
-        <v>343453.3053598671</v>
+        <v>390132.3502088691</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.428564106080196e-06</v>
+        <v>4.978854562946765e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>310674.6039361653</v>
+        <v>352898.6662591264</v>
       </c>
     </row>
     <row r="12">
@@ -53848,28 +53848,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>240.0796225664443</v>
+        <v>282.6391959154089</v>
       </c>
       <c r="AB12" t="n">
-        <v>328.4875311606881</v>
+        <v>386.7194170127581</v>
       </c>
       <c r="AC12" t="n">
-        <v>297.1371422219552</v>
+        <v>349.8114586171703</v>
       </c>
       <c r="AD12" t="n">
-        <v>240079.6225664443</v>
+        <v>282639.1959154089</v>
       </c>
       <c r="AE12" t="n">
-        <v>328487.5311606881</v>
+        <v>386719.4170127581</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.449061472449233e-06</v>
+        <v>5.008620203289873e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.955078125</v>
       </c>
       <c r="AH12" t="n">
-        <v>297137.1422219552</v>
+        <v>349811.4586171703</v>
       </c>
     </row>
     <row r="13">
@@ -53954,28 +53954,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>237.8012154987091</v>
+        <v>280.3607888476737</v>
       </c>
       <c r="AB13" t="n">
-        <v>325.3701140943885</v>
+        <v>383.601999946457</v>
       </c>
       <c r="AC13" t="n">
-        <v>294.31724706514</v>
+        <v>346.9915634603547</v>
       </c>
       <c r="AD13" t="n">
-        <v>237801.2154987091</v>
+        <v>280360.7888476737</v>
       </c>
       <c r="AE13" t="n">
-        <v>325370.1140943885</v>
+        <v>383601.999946457</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.46500386851404e-06</v>
+        <v>5.031771256890069e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.916015625</v>
       </c>
       <c r="AH13" t="n">
-        <v>294317.2470651399</v>
+        <v>346991.5634603547</v>
       </c>
     </row>
     <row r="14">
@@ -54060,28 +54060,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>236.1954100230311</v>
+        <v>278.7549833719957</v>
       </c>
       <c r="AB14" t="n">
-        <v>323.1729801994293</v>
+        <v>381.4048660514966</v>
       </c>
       <c r="AC14" t="n">
-        <v>292.3298045454181</v>
+        <v>345.0041209406326</v>
       </c>
       <c r="AD14" t="n">
-        <v>236195.4100230311</v>
+        <v>278754.9833719957</v>
       </c>
       <c r="AE14" t="n">
-        <v>323172.9801994293</v>
+        <v>381404.8660514966</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.474113809122502e-06</v>
+        <v>5.045000430375895e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.889973958333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>292329.8045454181</v>
+        <v>345004.1209406325</v>
       </c>
     </row>
     <row r="15">
@@ -54166,28 +54166,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>233.4023357464052</v>
+        <v>275.9619090953696</v>
       </c>
       <c r="AB15" t="n">
-        <v>319.351372752411</v>
+        <v>377.5832586044763</v>
       </c>
       <c r="AC15" t="n">
-        <v>288.8729259494823</v>
+        <v>341.5472423446961</v>
       </c>
       <c r="AD15" t="n">
-        <v>233402.3357464052</v>
+        <v>275961.9090953696</v>
       </c>
       <c r="AE15" t="n">
-        <v>319351.3727524109</v>
+        <v>377583.2586044763</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.49537033720891e-06</v>
+        <v>5.075868501842821e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.837890625</v>
       </c>
       <c r="AH15" t="n">
-        <v>288872.9259494823</v>
+        <v>341547.2423446961</v>
       </c>
     </row>
     <row r="16">
@@ -54272,28 +54272,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>231.9812445364568</v>
+        <v>274.5408178854212</v>
       </c>
       <c r="AB16" t="n">
-        <v>317.4069730648411</v>
+        <v>375.6388589169055</v>
       </c>
       <c r="AC16" t="n">
-        <v>287.1140970391114</v>
+        <v>339.788413434325</v>
       </c>
       <c r="AD16" t="n">
-        <v>231981.2445364568</v>
+        <v>274540.8178854212</v>
       </c>
       <c r="AE16" t="n">
-        <v>317406.9730648411</v>
+        <v>375638.8589169055</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.5037211161e-06</v>
+        <v>5.087995244204829e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.815104166666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>287114.0970391114</v>
+        <v>339788.413434325</v>
       </c>
     </row>
     <row r="17">
@@ -54378,28 +54378,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>230.2338348128103</v>
+        <v>272.7934081617747</v>
       </c>
       <c r="AB17" t="n">
-        <v>315.016089990673</v>
+        <v>373.2479758427361</v>
       </c>
       <c r="AC17" t="n">
-        <v>284.9513964899157</v>
+        <v>337.6257128851288</v>
       </c>
       <c r="AD17" t="n">
-        <v>230233.8348128103</v>
+        <v>272793.4081617747</v>
       </c>
       <c r="AE17" t="n">
-        <v>315016.089990673</v>
+        <v>373247.9758427361</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.51406469449919e-06</v>
+        <v>5.10301586826686e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH17" t="n">
-        <v>284951.3964899157</v>
+        <v>337625.7128851288</v>
       </c>
     </row>
     <row r="18">
@@ -54484,28 +54484,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>228.5532707055058</v>
+        <v>271.1128440544702</v>
       </c>
       <c r="AB18" t="n">
-        <v>312.7166680378043</v>
+        <v>370.9485538898663</v>
       </c>
       <c r="AC18" t="n">
-        <v>282.8714281409691</v>
+        <v>335.5457445361819</v>
       </c>
       <c r="AD18" t="n">
-        <v>228553.2707055058</v>
+        <v>271112.8440544702</v>
       </c>
       <c r="AE18" t="n">
-        <v>312716.6680378043</v>
+        <v>370948.5538898663</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.522320578175608e-06</v>
+        <v>5.11500480673839e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH18" t="n">
-        <v>282871.4281409691</v>
+        <v>335545.7445361819</v>
       </c>
     </row>
     <row r="19">
@@ -54590,28 +54590,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>227.0935031319508</v>
+        <v>269.6530764809152</v>
       </c>
       <c r="AB19" t="n">
-        <v>310.7193496432672</v>
+        <v>368.9512354953281</v>
       </c>
       <c r="AC19" t="n">
-        <v>281.064731010752</v>
+        <v>333.7390474059645</v>
       </c>
       <c r="AD19" t="n">
-        <v>227093.5031319508</v>
+        <v>269653.0764809152</v>
       </c>
       <c r="AE19" t="n">
-        <v>310719.3496432672</v>
+        <v>368951.2354953281</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.522605263819622e-06</v>
+        <v>5.115418218409822e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH19" t="n">
-        <v>281064.731010752</v>
+        <v>333739.0474059645</v>
       </c>
     </row>
     <row r="20">
@@ -54696,28 +54696,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>226.1373643535161</v>
+        <v>268.6969377024805</v>
       </c>
       <c r="AB20" t="n">
-        <v>309.4111183847476</v>
+        <v>367.6430042368078</v>
       </c>
       <c r="AC20" t="n">
-        <v>279.8813555074309</v>
+        <v>332.5556719026433</v>
       </c>
       <c r="AD20" t="n">
-        <v>226137.3643535161</v>
+        <v>268696.9377024805</v>
       </c>
       <c r="AE20" t="n">
-        <v>309411.1183847476</v>
+        <v>367643.0042368078</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.531715204428083e-06</v>
+        <v>5.128647391895648e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.746744791666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>279881.3555074309</v>
+        <v>332555.6719026433</v>
       </c>
     </row>
     <row r="21">
@@ -54802,28 +54802,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>224.4073287309222</v>
+        <v>266.9669020798866</v>
       </c>
       <c r="AB21" t="n">
-        <v>307.0440073221308</v>
+        <v>365.2758931741899</v>
       </c>
       <c r="AC21" t="n">
-        <v>277.7401582023684</v>
+        <v>330.4144745975804</v>
       </c>
       <c r="AD21" t="n">
-        <v>224407.3287309222</v>
+        <v>266966.9020798866</v>
       </c>
       <c r="AE21" t="n">
-        <v>307044.0073221308</v>
+        <v>365275.8931741899</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.540635354607202e-06</v>
+        <v>5.141600957600519e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>277740.1582023684</v>
+        <v>330414.4745975804</v>
       </c>
     </row>
     <row r="22">
@@ -54908,28 +54908,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>222.9628765378916</v>
+        <v>265.5224498868559</v>
       </c>
       <c r="AB22" t="n">
-        <v>305.067644106894</v>
+        <v>363.2995299589521</v>
       </c>
       <c r="AC22" t="n">
-        <v>275.9524163185499</v>
+        <v>328.6267327137616</v>
       </c>
       <c r="AD22" t="n">
-        <v>222962.8765378916</v>
+        <v>265522.4498868559</v>
       </c>
       <c r="AE22" t="n">
-        <v>305067.644106894</v>
+        <v>363299.529958952</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.542058782827274e-06</v>
+        <v>5.143668015957679e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8.720703125</v>
       </c>
       <c r="AH22" t="n">
-        <v>275952.4163185499</v>
+        <v>328626.7327137616</v>
       </c>
     </row>
     <row r="23">
@@ -55014,28 +55014,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>221.8133904599079</v>
+        <v>264.3729638088722</v>
       </c>
       <c r="AB23" t="n">
-        <v>303.4948665432509</v>
+        <v>361.726752395308</v>
       </c>
       <c r="AC23" t="n">
-        <v>274.5297424381731</v>
+        <v>327.2040588333846</v>
       </c>
       <c r="AD23" t="n">
-        <v>221813.3904599079</v>
+        <v>264372.9638088722</v>
       </c>
       <c r="AE23" t="n">
-        <v>303494.8665432509</v>
+        <v>361726.7523953081</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.550789142577049e-06</v>
+        <v>5.156345973881595e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>274529.7424381731</v>
+        <v>327204.0588333847</v>
       </c>
     </row>
     <row r="24">
@@ -55120,28 +55120,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>222.0748008182694</v>
+        <v>264.6343741672336</v>
       </c>
       <c r="AB24" t="n">
-        <v>303.8525397281719</v>
+        <v>362.0844255802293</v>
       </c>
       <c r="AC24" t="n">
-        <v>274.8532797963229</v>
+        <v>327.5275961915344</v>
       </c>
       <c r="AD24" t="n">
-        <v>222074.8008182693</v>
+        <v>264634.3741672336</v>
       </c>
       <c r="AE24" t="n">
-        <v>303852.5397281719</v>
+        <v>362084.4255802293</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.550978933006392e-06</v>
+        <v>5.15662158166255e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH24" t="n">
-        <v>274853.2797963229</v>
+        <v>327527.5961915344</v>
       </c>
     </row>
   </sheetData>
@@ -55417,28 +55417,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.1620770801732</v>
+        <v>162.5698047308861</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.9887638559241</v>
+        <v>222.4351789063031</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.383520428327</v>
+        <v>201.2062776212838</v>
       </c>
       <c r="AD2" t="n">
-        <v>127162.0770801732</v>
+        <v>162569.8047308861</v>
       </c>
       <c r="AE2" t="n">
-        <v>173988.7638559241</v>
+        <v>222435.1789063031</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.180046595256464e-06</v>
+        <v>6.967888631121706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.495442708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>157383.520428327</v>
+        <v>201206.2776212838</v>
       </c>
     </row>
   </sheetData>
@@ -55714,28 +55714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.6376715094725</v>
+        <v>368.2076660183472</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.7106076949864</v>
+        <v>503.7979728220719</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.8406830307813</v>
+        <v>455.7162013808284</v>
       </c>
       <c r="AD2" t="n">
-        <v>320637.6715094725</v>
+        <v>368207.6660183472</v>
       </c>
       <c r="AE2" t="n">
-        <v>438710.6076949865</v>
+        <v>503797.9728220719</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.74489887601282e-06</v>
+        <v>4.177479775360753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.392578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>396840.6830307813</v>
+        <v>455716.2013808283</v>
       </c>
     </row>
     <row r="3">
@@ -55820,28 +55820,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.1987326777443</v>
+        <v>273.6832968234991</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.4950852333359</v>
+        <v>374.4655607688243</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.9573086778383</v>
+        <v>338.7270932147623</v>
       </c>
       <c r="AD3" t="n">
-        <v>226198.7326777443</v>
+        <v>273683.2968234991</v>
       </c>
       <c r="AE3" t="n">
-        <v>309495.085233336</v>
+        <v>374465.5607688243</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.408026479131208e-06</v>
+        <v>5.186698065593162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.983723958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>279957.3086778383</v>
+        <v>338727.0932147623</v>
       </c>
     </row>
     <row r="4">
@@ -55926,28 +55926,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.9745638241876</v>
+        <v>248.5166765026742</v>
       </c>
       <c r="AB4" t="n">
-        <v>285.9282175312111</v>
+        <v>340.031480572782</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.6396297528902</v>
+        <v>307.5793533041972</v>
       </c>
       <c r="AD4" t="n">
-        <v>208974.5638241876</v>
+        <v>248516.6765026742</v>
       </c>
       <c r="AE4" t="n">
-        <v>285928.2175312111</v>
+        <v>340031.4805727819</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.632308880438073e-06</v>
+        <v>5.528034937277756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.365234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>258639.6297528902</v>
+        <v>307579.3533041973</v>
       </c>
     </row>
     <row r="5">
@@ -56032,28 +56032,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>199.5851291816723</v>
+        <v>231.3553825934864</v>
       </c>
       <c r="AB5" t="n">
-        <v>273.0811788207068</v>
+        <v>316.5506411433893</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.0186943859802</v>
+        <v>286.3394922343732</v>
       </c>
       <c r="AD5" t="n">
-        <v>199585.1291816723</v>
+        <v>231355.3825934864</v>
       </c>
       <c r="AE5" t="n">
-        <v>273081.1788207068</v>
+        <v>316550.6411433893</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.75657345413512e-06</v>
+        <v>5.717154014832733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.055989583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>247018.6943859802</v>
+        <v>286339.4922343732</v>
       </c>
     </row>
     <row r="6">
@@ -56138,28 +56138,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.178991968657</v>
+        <v>225.8063559931642</v>
       </c>
       <c r="AB6" t="n">
-        <v>254.7383104488361</v>
+        <v>308.9582181430561</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.4264436271376</v>
+        <v>279.4716794291569</v>
       </c>
       <c r="AD6" t="n">
-        <v>186178.9919686569</v>
+        <v>225806.3559931642</v>
       </c>
       <c r="AE6" t="n">
-        <v>254738.3104488361</v>
+        <v>308958.2181430561</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.818339949555604e-06</v>
+        <v>5.81115685321372e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.909505208333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>230426.4436271375</v>
+        <v>279471.6794291569</v>
       </c>
     </row>
     <row r="7">
@@ -56244,28 +56244,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>181.3727827212498</v>
+        <v>221.0001467457571</v>
       </c>
       <c r="AB7" t="n">
-        <v>248.1622429215496</v>
+        <v>302.3821506157697</v>
       </c>
       <c r="AC7" t="n">
-        <v>224.4779867550845</v>
+        <v>273.5232225571038</v>
       </c>
       <c r="AD7" t="n">
-        <v>181372.7827212499</v>
+        <v>221000.1467457571</v>
       </c>
       <c r="AE7" t="n">
-        <v>248162.2429215497</v>
+        <v>302382.1506157697</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.86934172580805e-06</v>
+        <v>5.888776794211893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.792317708333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>224477.9867550845</v>
+        <v>273523.2225571038</v>
       </c>
     </row>
     <row r="8">
@@ -56350,28 +56350,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.8218584042016</v>
+        <v>217.4492224287088</v>
       </c>
       <c r="AB8" t="n">
-        <v>243.303711615242</v>
+        <v>297.523619309462</v>
       </c>
       <c r="AC8" t="n">
-        <v>220.0831468576578</v>
+        <v>269.1283826596771</v>
       </c>
       <c r="AD8" t="n">
-        <v>177821.8584042016</v>
+        <v>217449.2224287088</v>
       </c>
       <c r="AE8" t="n">
-        <v>243303.711615242</v>
+        <v>297523.619309462</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.898918575561005e-06</v>
+        <v>5.933789997700588e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>220083.1468576578</v>
+        <v>269128.3826596771</v>
       </c>
     </row>
     <row r="9">
@@ -56456,28 +56456,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>175.4888717054884</v>
+        <v>215.1162357299957</v>
       </c>
       <c r="AB9" t="n">
-        <v>240.1116162899552</v>
+        <v>294.3315239841752</v>
       </c>
       <c r="AC9" t="n">
-        <v>217.1957006300814</v>
+        <v>266.2409364321007</v>
       </c>
       <c r="AD9" t="n">
-        <v>175488.8717054884</v>
+        <v>215116.2357299956</v>
       </c>
       <c r="AE9" t="n">
-        <v>240111.6162899552</v>
+        <v>294331.5239841752</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.91720814696301e-06</v>
+        <v>5.961625017525754e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.684895833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>217195.7006300814</v>
+        <v>266240.9364321007</v>
       </c>
     </row>
   </sheetData>
@@ -56753,28 +56753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.210518754929</v>
+        <v>480.3696062700352</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.1093495557772</v>
+        <v>657.2628877100065</v>
       </c>
       <c r="AC2" t="n">
-        <v>513.8897905806529</v>
+        <v>594.5346401812192</v>
       </c>
       <c r="AD2" t="n">
-        <v>415210.518754929</v>
+        <v>480369.6062700352</v>
       </c>
       <c r="AE2" t="n">
-        <v>568109.3495557772</v>
+        <v>657262.8877100064</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351648379845224e-06</v>
+        <v>3.510801014848922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.92903645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>513889.7905806529</v>
+        <v>594534.6401812192</v>
       </c>
     </row>
     <row r="3">
@@ -56859,28 +56859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.843696614032</v>
+        <v>323.7556826776475</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.0532709554572</v>
+        <v>442.976808132228</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.1632745695483</v>
+        <v>400.6997232859425</v>
       </c>
       <c r="AD3" t="n">
-        <v>274843.696614032</v>
+        <v>323755.6826776475</v>
       </c>
       <c r="AE3" t="n">
-        <v>376053.2709554572</v>
+        <v>442976.808132228</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.10118536078173e-06</v>
+        <v>4.62979278925351e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.56315104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>340163.2745695483</v>
+        <v>400699.7232859425</v>
       </c>
     </row>
     <row r="4">
@@ -56965,28 +56965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.5453197295042</v>
+        <v>282.3764254946632</v>
       </c>
       <c r="AB4" t="n">
-        <v>330.4929626811808</v>
+        <v>386.359882930481</v>
       </c>
       <c r="AC4" t="n">
-        <v>298.9511781727736</v>
+        <v>349.4862379630965</v>
       </c>
       <c r="AD4" t="n">
-        <v>241545.3197295042</v>
+        <v>282376.4254946632</v>
       </c>
       <c r="AE4" t="n">
-        <v>330492.9626811808</v>
+        <v>386359.882930481</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.364413813208888e-06</v>
+        <v>5.022769360852705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.736328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>298951.1781727736</v>
+        <v>349486.2379630965</v>
       </c>
     </row>
     <row r="5">
@@ -57071,28 +57071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>229.7337473033098</v>
+        <v>270.3942608678764</v>
       </c>
       <c r="AB5" t="n">
-        <v>314.331848197871</v>
+        <v>369.9653566723159</v>
       </c>
       <c r="AC5" t="n">
-        <v>284.332457773479</v>
+        <v>334.6563822811485</v>
       </c>
       <c r="AD5" t="n">
-        <v>229733.7473033098</v>
+        <v>270394.2608678763</v>
       </c>
       <c r="AE5" t="n">
-        <v>314331.8481978709</v>
+        <v>369965.3566723159</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.499851694312463e-06</v>
+        <v>5.224966021927826e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.358723958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>284332.457773479</v>
+        <v>334656.3822811485</v>
       </c>
     </row>
     <row r="6">
@@ -57177,28 +57177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.111581370535</v>
+        <v>254.7765554912103</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.9028645024252</v>
+        <v>348.596523171263</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.8988016447527</v>
+        <v>315.3269602581947</v>
       </c>
       <c r="AD6" t="n">
-        <v>222111.581370535</v>
+        <v>254776.5554912103</v>
       </c>
       <c r="AE6" t="n">
-        <v>303902.8645024252</v>
+        <v>348596.5231712629</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.588500114262129e-06</v>
+        <v>5.357310196078778e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>274898.8016447527</v>
+        <v>315326.9602581947</v>
       </c>
     </row>
     <row r="7">
@@ -57283,28 +57283,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>217.411630322297</v>
+        <v>250.0766044429724</v>
       </c>
       <c r="AB7" t="n">
-        <v>297.4721841310227</v>
+        <v>342.1658427998605</v>
       </c>
       <c r="AC7" t="n">
-        <v>269.0818563824783</v>
+        <v>309.5100149959203</v>
       </c>
       <c r="AD7" t="n">
-        <v>217411.630322297</v>
+        <v>250076.6044429723</v>
       </c>
       <c r="AE7" t="n">
-        <v>297472.1841310227</v>
+        <v>342165.8427998605</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.637201402861038e-06</v>
+        <v>5.430016870640708e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.00390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>269081.8563824783</v>
+        <v>309510.0149959203</v>
       </c>
     </row>
     <row r="8">
@@ -57389,28 +57389,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>205.1119919152473</v>
+        <v>245.8577568258311</v>
       </c>
       <c r="AB8" t="n">
-        <v>280.6432762407557</v>
+        <v>336.3934293676696</v>
       </c>
       <c r="AC8" t="n">
-        <v>253.8590758417323</v>
+        <v>304.2885126000627</v>
       </c>
       <c r="AD8" t="n">
-        <v>205111.9919152473</v>
+        <v>245857.7568258311</v>
       </c>
       <c r="AE8" t="n">
-        <v>280643.2762407556</v>
+        <v>336393.4293676696</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.678959739159689e-06</v>
+        <v>5.492358337465505e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.902994791666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>253859.0758417323</v>
+        <v>304288.5126000628</v>
       </c>
     </row>
     <row r="9">
@@ -57495,28 +57495,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>201.4905128184874</v>
+        <v>242.2362777290712</v>
       </c>
       <c r="AB9" t="n">
-        <v>275.6882087721894</v>
+        <v>331.4383618991034</v>
       </c>
       <c r="AC9" t="n">
-        <v>249.3769130578836</v>
+        <v>299.806349816214</v>
       </c>
       <c r="AD9" t="n">
-        <v>201490.5128184874</v>
+        <v>242236.2777290712</v>
       </c>
       <c r="AE9" t="n">
-        <v>275688.2087721894</v>
+        <v>331438.3618991034</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.712668275689925e-06</v>
+        <v>5.542682172131304e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.821614583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>249376.9130578836</v>
+        <v>299806.3498162141</v>
       </c>
     </row>
     <row r="10">
@@ -57601,28 +57601,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>198.2249517823043</v>
+        <v>238.9707166928881</v>
       </c>
       <c r="AB10" t="n">
-        <v>271.2201240961007</v>
+        <v>326.9702772230147</v>
       </c>
       <c r="AC10" t="n">
-        <v>245.3352561122832</v>
+        <v>295.7646928706137</v>
       </c>
       <c r="AD10" t="n">
-        <v>198224.9517823043</v>
+        <v>238970.7166928881</v>
       </c>
       <c r="AE10" t="n">
-        <v>271220.1240961007</v>
+        <v>326970.2772230147</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.738930747434378e-06</v>
+        <v>5.581889697050031e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.759765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>245335.2561122832</v>
+        <v>295764.6928706137</v>
       </c>
     </row>
     <row r="11">
@@ -57707,28 +57707,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>195.4589917849933</v>
+        <v>236.204756695577</v>
       </c>
       <c r="AB11" t="n">
-        <v>267.4356156022386</v>
+        <v>323.1857687291527</v>
       </c>
       <c r="AC11" t="n">
-        <v>241.9119357974831</v>
+        <v>292.3413725558135</v>
       </c>
       <c r="AD11" t="n">
-        <v>195458.9917849933</v>
+        <v>236204.756695577</v>
       </c>
       <c r="AE11" t="n">
-        <v>267435.6156022386</v>
+        <v>323185.7687291527</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.757646531895942e-06</v>
+        <v>5.609830691819698e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.717447916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>241911.9357974831</v>
+        <v>292341.3725558135</v>
       </c>
     </row>
     <row r="12">
@@ -57813,28 +57813,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>192.4770541682727</v>
+        <v>233.2228190788565</v>
       </c>
       <c r="AB12" t="n">
-        <v>263.3555970012406</v>
+        <v>319.1057501281546</v>
       </c>
       <c r="AC12" t="n">
-        <v>238.2213084454209</v>
+        <v>288.6507452037514</v>
       </c>
       <c r="AD12" t="n">
-        <v>192477.0541682727</v>
+        <v>233222.8190788565</v>
       </c>
       <c r="AE12" t="n">
-        <v>263355.5970012406</v>
+        <v>319105.7501281546</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.7762616938604e-06</v>
+        <v>5.637621466187378e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.675130208333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>238221.3084454209</v>
+        <v>288650.7452037514</v>
       </c>
     </row>
     <row r="13">
@@ -57919,28 +57919,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>191.1556991139437</v>
+        <v>231.9014640245275</v>
       </c>
       <c r="AB13" t="n">
-        <v>261.5476607218377</v>
+        <v>317.2978138487518</v>
       </c>
       <c r="AC13" t="n">
-        <v>236.5859190670692</v>
+        <v>287.0153558253996</v>
       </c>
       <c r="AD13" t="n">
-        <v>191155.6991139437</v>
+        <v>231901.4640245275</v>
       </c>
       <c r="AE13" t="n">
-        <v>261547.6607218377</v>
+        <v>317297.8138487518</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.783506513651974e-06</v>
+        <v>5.648437335130475e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.655598958333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>236585.9190670692</v>
+        <v>287015.3558253996</v>
       </c>
     </row>
     <row r="14">
@@ -58025,28 +58025,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>191.8474166342657</v>
+        <v>232.5931815448494</v>
       </c>
       <c r="AB14" t="n">
-        <v>262.494099149565</v>
+        <v>318.244252276479</v>
       </c>
       <c r="AC14" t="n">
-        <v>237.4420307395892</v>
+        <v>287.8714674979196</v>
       </c>
       <c r="AD14" t="n">
-        <v>191847.4166342657</v>
+        <v>232593.1815448494</v>
       </c>
       <c r="AE14" t="n">
-        <v>262494.099149565</v>
+        <v>318244.252276479</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.783305268657763e-06</v>
+        <v>5.648136894326499e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.658854166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>237442.0307395892</v>
+        <v>287871.4674979196</v>
       </c>
     </row>
   </sheetData>
